--- a/Calculs/PH2/DataBase_PH2_FileB_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileB_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E379EDD-D576-464E-A661-5961E8080878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D1D8AB-A886-4A1E-A4C8-FADFD58AD3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="40680" yWindow="1040" windowWidth="19310" windowHeight="20600" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -1115,8 +1115,8 @@
   <dimension ref="A1:AT61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA6" sqref="AA6:AA16"/>
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q72" sqref="Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1259,7 +1259,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M2" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N2" s="6">
         <v>0.03</v>
@@ -1363,7 +1363,7 @@
         <v>2.6</v>
       </c>
       <c r="M3">
-        <v>1.0009999999999999E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="N3">
         <v>0.04</v>
@@ -1571,7 +1571,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M5" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N5" s="6">
         <v>0.03</v>
@@ -2918,7 +2918,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M18" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N18" s="6">
         <v>0.03</v>
@@ -3020,7 +3020,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M19" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N19" s="6">
         <v>0.03</v>
@@ -3561,8 +3561,9 @@
       <c r="T24">
         <v>0</v>
       </c>
-      <c r="U24">
-        <v>5</v>
+      <c r="U24" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V24" s="2">
         <v>106</v>
@@ -3873,8 +3874,9 @@
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27">
-        <v>5</v>
+      <c r="U27" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V27" s="2">
         <v>28</v>
@@ -4986,7 +4988,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M38" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N38" s="6">
         <v>0.03</v>
@@ -5296,7 +5298,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M41" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N41" s="6">
         <v>0.03</v>
@@ -5941,8 +5943,9 @@
       <c r="T47">
         <v>0</v>
       </c>
-      <c r="U47">
-        <v>5</v>
+      <c r="U47" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V47" s="2">
         <v>22.2</v>
@@ -6019,7 +6022,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M48" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N48" s="6">
         <v>0.03</v>
@@ -6121,7 +6124,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M49" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N49" s="6">
         <v>0.03</v>
@@ -6223,7 +6226,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M50" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N50" s="6">
         <v>0.03</v>
@@ -6325,7 +6328,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M51" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N51" s="6">
         <v>0.03</v>
@@ -6779,31 +6782,31 @@
       </c>
       <c r="Y55" s="2">
         <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C55)),V55+X55*V55,IF(A54&lt;A55,V55-X56*V56/2,IF(A55&lt;A56,V55-(X54*V54)/2,V55-(X56*V56+X54*V54)/2))),0)</f>
-        <v>39.6</v>
+        <v>48.412500000000001</v>
       </c>
       <c r="Z55" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20.022500000000001</v>
       </c>
       <c r="AA55" s="12">
         <v>0.6</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" ref="AB55:AB58" si="31">Y55*(1-AA55)</f>
-        <v>15.840000000000002</v>
+        <v>19.365000000000002</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" ref="AC55:AC58" si="32">Y55*AA55 + Z55</f>
-        <v>40.760000000000005</v>
+        <v>49.07</v>
       </c>
       <c r="AD55" s="4">
         <f t="shared" ref="AD55:AD58" si="33">1.35*Y55+1.5*Z55</f>
-        <v>78.960000000000008</v>
+        <v>95.390625</v>
       </c>
       <c r="AE55" s="4"/>
       <c r="AF55">
         <f t="shared" ref="AF55:AF58" si="34">AB55+AC55</f>
-        <v>56.600000000000009</v>
+        <v>68.435000000000002</v>
       </c>
       <c r="AT55" s="10"/>
     </row>
@@ -6862,6 +6865,7 @@
         <v>0.04</v>
       </c>
       <c r="R56" s="11">
+        <f>2+4*1</f>
         <v>6</v>
       </c>
       <c r="S56">
@@ -6881,15 +6885,15 @@
         <v>40.299999999999997</v>
       </c>
       <c r="X56" s="13">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="Y56" s="2">
         <f t="shared" si="1"/>
-        <v>117.5</v>
+        <v>99.875</v>
       </c>
       <c r="Z56" s="2">
         <f t="shared" si="2"/>
-        <v>40.299999999999997</v>
+        <v>34.254999999999995</v>
       </c>
       <c r="AA56" s="12">
         <v>1</v>
@@ -6900,16 +6904,16 @@
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="32"/>
-        <v>157.80000000000001</v>
+        <v>134.13</v>
       </c>
       <c r="AD56" s="4">
         <f t="shared" si="33"/>
-        <v>219.07499999999999</v>
+        <v>186.21375</v>
       </c>
       <c r="AE56" s="4"/>
       <c r="AF56">
         <f t="shared" si="34"/>
-        <v>157.80000000000001</v>
+        <v>134.13</v>
       </c>
       <c r="AT56" s="10"/>
     </row>
@@ -6952,7 +6956,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M57" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N57" s="6">
         <v>0.03</v>
@@ -6989,31 +6993,31 @@
       </c>
       <c r="Y57" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.8125</v>
       </c>
       <c r="Z57" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.0224999999999995</v>
       </c>
       <c r="AA57" s="5">
         <v>0</v>
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>8.8125</v>
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3.0224999999999995</v>
       </c>
       <c r="AD57" s="4">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>16.430624999999999</v>
       </c>
       <c r="AE57" s="4"/>
       <c r="AF57">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>11.834999999999999</v>
       </c>
       <c r="AT57" s="10"/>
     </row>
@@ -7056,7 +7060,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M58" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N58" s="6">
         <v>0.03</v>
@@ -7160,7 +7164,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M59" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N59" s="6">
         <v>0.03</v>
@@ -7264,7 +7268,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M60" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N60" s="6">
         <v>0.03</v>
@@ -7365,7 +7369,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M61" s="6">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="N61" s="6">
         <v>0.03</v>

--- a/Calculs/PH2/DataBase_PH2_FileB_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileB_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D1D8AB-A886-4A1E-A4C8-FADFD58AD3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0896C8-9272-434E-BF69-D6B8835B2E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40680" yWindow="1040" windowWidth="19310" windowHeight="20600" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19410" windowHeight="20970" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q72" sqref="Q72"/>
+      <selection pane="topRight" activeCell="U57" sqref="U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1363,7 +1363,7 @@
         <v>2.6</v>
       </c>
       <c r="M3">
-        <v>1.0000000000000001E-5</v>
+        <v>1.0009999999999999E-3</v>
       </c>
       <c r="N3">
         <v>0.04</v>
@@ -1570,8 +1570,8 @@
       <c r="L5" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M5" s="6">
-        <v>1E-4</v>
+      <c r="M5" s="11">
+        <v>1E-3</v>
       </c>
       <c r="N5" s="6">
         <v>0.03</v>
@@ -6875,8 +6875,8 @@
         <v>0</v>
       </c>
       <c r="U56" s="11">
-        <f>10+4</f>
-        <v>14</v>
+        <f>(10+4)*0</f>
+        <v>0</v>
       </c>
       <c r="V56" s="2">
         <v>117.5</v>

--- a/Calculs/PH2/DataBase_PH2_FileB_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileB_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0896C8-9272-434E-BF69-D6B8835B2E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84997367-A454-446C-BFCD-74D3CB40AEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19410" windowHeight="20970" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="58">
   <si>
     <t>fck</t>
   </si>
@@ -200,7 +200,13 @@
     <t>File B - 0</t>
   </si>
   <si>
-    <t>File B - 6</t>
+    <t>Appui 8</t>
+  </si>
+  <si>
+    <t>File B - 1 Avec HA en SUP</t>
+  </si>
+  <si>
+    <t>File B - 1 + Chapiteau</t>
   </si>
 </sst>
 </file>
@@ -774,7 +780,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1112,16 +1125,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
-  <dimension ref="A1:AT61"/>
+  <dimension ref="A1:AT92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U57" sqref="U57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH70" sqref="AH70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="35" max="42" width="11.453125" customWidth="1"/>
     <col min="43" max="43" width="11.453125" collapsed="1"/>
   </cols>
@@ -1326,7 +1340,7 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f t="shared" ref="A3:A61" si="0">IF(B3=B2,A2,A2+1)</f>
+        <f t="shared" ref="A3:A66" si="0">IF(B3=B2,A2,A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1399,11 +1413,11 @@
         <v>44</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y60" si="1">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),V3+X3*V3,IF(A2&lt;A3,V3-X4*V4/2,IF(A3&lt;A4,V3-(X2*V2)/2,V3-(X4*V4+X2*V2)/2))),0)</f>
+        <f t="shared" ref="Y3:Y59" si="1">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),V3+X3*V3,IF(A2&lt;A3,V3-X4*V4/2,IF(A3&lt;A4,V3-(X2*V2)/2,V3-(X4*V4+X2*V2)/2))),0)</f>
         <v>32</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z60" si="2">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),W3+X3*W3,IF(A2&lt;A3,W3-X4*W4/2,IF(A3&lt;A4,W3-(X2*W2)/2,W3-(X4*W4+X2*W2)/2))),0)</f>
+        <f t="shared" ref="Z3:Z59" si="2">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),W3+X3*W3,IF(A2&lt;A3,W3-X4*W4/2,IF(A3&lt;A4,W3-(X2*W2)/2,W3-(X4*W4+X2*W2)/2))),0)</f>
         <v>10.3</v>
       </c>
       <c r="AA3" s="3">
@@ -6651,7 +6665,7 @@
         <f>3.14*10^(-4)</f>
         <v>3.1400000000000004E-4</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="11">
         <v>0.04</v>
       </c>
       <c r="R54" s="11">
@@ -6861,7 +6875,7 @@
         <f>3.14*10^(-4)</f>
         <v>3.1400000000000004E-4</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="11">
         <v>0.04</v>
       </c>
       <c r="R56" s="11">
@@ -7211,20 +7225,20 @@
         <v>0</v>
       </c>
       <c r="AB59" s="2">
-        <f t="shared" ref="AB59:AB61" si="35">Y59*(1-AA59)</f>
+        <f t="shared" ref="AB59:AB76" si="35">Y59*(1-AA59)</f>
         <v>0</v>
       </c>
       <c r="AC59" s="2">
-        <f t="shared" ref="AC59:AC61" si="36">Y59*AA59 + Z59</f>
+        <f t="shared" ref="AC59:AC76" si="36">Y59*AA59 + Z59</f>
         <v>0</v>
       </c>
       <c r="AD59" s="4">
-        <f t="shared" ref="AD59:AD61" si="37">1.35*Y59+1.5*Z59</f>
+        <f t="shared" ref="AD59:AD76" si="37">1.35*Y59+1.5*Z59</f>
         <v>0</v>
       </c>
       <c r="AE59" s="4"/>
       <c r="AF59">
-        <f t="shared" ref="AF59:AF61" si="38">AB59+AC59</f>
+        <f t="shared" ref="AF59:AF76" si="38">AB59+AC59</f>
         <v>0</v>
       </c>
       <c r="AT59" s="10"/>
@@ -7304,11 +7318,11 @@
         <v>44</v>
       </c>
       <c r="Y60" s="2">
-        <f t="shared" si="1"/>
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C60)),V60+X60*V60,IF(A59&lt;A60,V60-#REF!*#REF!/2,IF(A60&lt;#REF!,V60-(X59*V59)/2,V60-(#REF!*#REF!+X59*V59)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="Z60" s="2">
-        <f t="shared" si="2"/>
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C60)),W60+X60*W60,IF(A59&lt;A60,W60-#REF!*#REF!/2,IF(A60&lt;#REF!,W60-(X59*W59)/2,W60-(#REF!*#REF!+X59*W59)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="AA60" s="5">
@@ -7339,80 +7353,83 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="6">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61">
         <v>25</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" t="s">
         <v>18</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61">
         <v>500</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="1">
         <v>220000</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61">
         <v>1576</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61">
         <v>1870</v>
       </c>
-      <c r="J61" s="6">
-        <v>1</v>
-      </c>
-      <c r="K61" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="L61" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M61" s="6">
-        <v>1E-4</v>
-      </c>
-      <c r="N61" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="O61" s="6">
-        <v>1</v>
-      </c>
-      <c r="P61" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="6">
-        <v>0</v>
-      </c>
-      <c r="R61" s="6">
-        <v>1</v>
-      </c>
-      <c r="S61" s="6">
-        <v>0</v>
-      </c>
-      <c r="T61" s="6">
-        <v>0</v>
-      </c>
-      <c r="U61" s="6">
-        <v>0</v>
-      </c>
-      <c r="V61" s="8">
-        <v>0</v>
-      </c>
-      <c r="W61" s="8">
-        <v>0</v>
-      </c>
-      <c r="X61" s="6" t="s">
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0.23</v>
+      </c>
+      <c r="L61">
+        <v>2.6</v>
+      </c>
+      <c r="M61">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="N61">
+        <v>0.04</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61" s="2">
+        <v>32</v>
+      </c>
+      <c r="W61">
+        <v>10.3</v>
+      </c>
+      <c r="X61" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Y61" s="2">
-        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C61)),V61+X61*V61,IF(A60&lt;A61,V61-#REF!*#REF!/2,IF(A61&lt;#REF!,V61-(X60*V60)/2,V61-(#REF!*#REF!+X60*V60)/2))),0)</f>
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C61)),V61+X61*V61,IF(#REF!&lt;A61,V61-X62*V62/2,IF(A61&lt;A62,V61-(#REF!*#REF!)/2,V61-(X62*V62+#REF!*#REF!)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="Z61" s="2">
-        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C61)),W61+X61*W61,IF(A60&lt;A61,W61-#REF!*#REF!/2,IF(A61&lt;#REF!,W61-(X60*W60)/2,W61-(#REF!*#REF!+X60*W60)/2))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA61" s="5">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C61)),W61+X61*W61,IF(#REF!&lt;A61,W61-X62*W62/2,IF(A61&lt;A62,W61-(#REF!*#REF!)/2,W61-(X62*W62+#REF!*#REF!)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>0</v>
       </c>
       <c r="AB61" s="2">
@@ -7432,13 +7449,3231 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AT61" s="10"/>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>500</v>
+      </c>
+      <c r="G62" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H62">
+        <v>1576</v>
+      </c>
+      <c r="I62">
+        <v>1870</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0.23</v>
+      </c>
+      <c r="L62">
+        <v>2.6</v>
+      </c>
+      <c r="M62">
+        <v>1.3078E-3</v>
+      </c>
+      <c r="N62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>5</v>
+      </c>
+      <c r="V62" s="2">
+        <v>63</v>
+      </c>
+      <c r="W62">
+        <v>18.5</v>
+      </c>
+      <c r="X62" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C62)),V62+X62*V62,IF(A61&lt;A62,V62-X63*V63/2,IF(A62&lt;A63,V62-(X61*V61)/2,V62-(X63*V63+X61*V61)/2))),0)</f>
+        <v>63</v>
+      </c>
+      <c r="Z62" s="2">
+        <f t="shared" ref="Z62:Z76" si="39">IFERROR(IF(ISNUMBER(SEARCH("Appui",C62)),W62+X62*W62,IF(A61&lt;A62,W62-X63*W63/2,IF(A62&lt;A63,W62-(X61*W61)/2,W62-(X63*W63+X61*W61)/2))),0)</f>
+        <v>18.5</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2">
+        <f t="shared" si="35"/>
+        <v>63</v>
+      </c>
+      <c r="AC62" s="2">
+        <f t="shared" si="36"/>
+        <v>18.5</v>
+      </c>
+      <c r="AD62" s="4">
+        <f t="shared" si="37"/>
+        <v>112.80000000000001</v>
+      </c>
+      <c r="AE62" s="4"/>
+      <c r="AF62">
+        <f t="shared" si="38"/>
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="6">
+        <v>25</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="6">
+        <v>500</v>
+      </c>
+      <c r="G63" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H63" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J63" s="6">
+        <v>1</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L63" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M63" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="N63" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O63" s="6">
+        <v>1</v>
+      </c>
+      <c r="P63" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="6">
+        <v>0</v>
+      </c>
+      <c r="R63" s="6">
+        <v>1</v>
+      </c>
+      <c r="S63" s="6">
+        <v>0</v>
+      </c>
+      <c r="T63" s="6">
+        <v>0</v>
+      </c>
+      <c r="U63" s="6">
+        <v>0</v>
+      </c>
+      <c r="V63" s="8">
+        <v>0</v>
+      </c>
+      <c r="W63" s="8">
+        <v>0</v>
+      </c>
+      <c r="X63" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y63" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="AB63" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AD63" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AE63" s="4"/>
+      <c r="AF63">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>500</v>
+      </c>
+      <c r="G64" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H64">
+        <v>1576</v>
+      </c>
+      <c r="I64">
+        <v>1870</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0.23</v>
+      </c>
+      <c r="L64">
+        <v>2.6</v>
+      </c>
+      <c r="M64">
+        <v>1.3286000000000001E-3</v>
+      </c>
+      <c r="N64">
+        <v>0.06</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64" s="11">
+        <f>3.14*10^(-4)</f>
+        <v>3.1400000000000004E-4</v>
+      </c>
+      <c r="Q64" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R64" s="11">
+        <v>4</v>
+      </c>
+      <c r="S64">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64" s="11">
+        <f>10*0</f>
+        <v>0</v>
+      </c>
+      <c r="V64" s="2">
+        <v>107.5</v>
+      </c>
+      <c r="W64">
+        <v>34</v>
+      </c>
+      <c r="X64" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y64" s="2">
+        <f t="shared" ref="Y64:Y76" si="40">IFERROR(IF(ISNUMBER(SEARCH("Appui",C64)),V64+X64*V64,IF(A63&lt;A64,V64-X65*V65/2,IF(A64&lt;A65,V64-(X63*V63)/2,V64-(X65*V65+X63*V63)/2))),0)</f>
+        <v>118.25</v>
+      </c>
+      <c r="Z64" s="2">
+        <f t="shared" si="39"/>
+        <v>37.4</v>
+      </c>
+      <c r="AA64" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB64" s="2">
+        <f t="shared" si="35"/>
+        <v>59.125</v>
+      </c>
+      <c r="AC64" s="2">
+        <f t="shared" si="36"/>
+        <v>96.525000000000006</v>
+      </c>
+      <c r="AD64" s="4">
+        <f t="shared" si="37"/>
+        <v>215.73750000000001</v>
+      </c>
+      <c r="AE64" s="4"/>
+      <c r="AF64">
+        <f t="shared" si="38"/>
+        <v>155.65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65">
+        <v>500</v>
+      </c>
+      <c r="G65" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H65">
+        <v>1576</v>
+      </c>
+      <c r="I65">
+        <v>1870</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0.23</v>
+      </c>
+      <c r="L65">
+        <v>2.6</v>
+      </c>
+      <c r="M65">
+        <v>3.3280000000000001E-4</v>
+      </c>
+      <c r="N65">
+        <v>0.03</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>7</v>
+      </c>
+      <c r="V65" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="W65">
+        <v>15.9</v>
+      </c>
+      <c r="X65" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y65" s="2">
+        <f t="shared" si="40"/>
+        <v>24.574999999999999</v>
+      </c>
+      <c r="Z65" s="2">
+        <f t="shared" si="39"/>
+        <v>12.1</v>
+      </c>
+      <c r="AA65" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AB65" s="2">
+        <f t="shared" si="35"/>
+        <v>12.2875</v>
+      </c>
+      <c r="AC65" s="2">
+        <f t="shared" si="36"/>
+        <v>24.387499999999999</v>
+      </c>
+      <c r="AD65" s="4">
+        <f t="shared" si="37"/>
+        <v>51.326250000000002</v>
+      </c>
+      <c r="AE65" s="4"/>
+      <c r="AF65">
+        <f t="shared" si="38"/>
+        <v>36.674999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66">
+        <v>500</v>
+      </c>
+      <c r="G66" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H66">
+        <v>1576</v>
+      </c>
+      <c r="I66">
+        <v>1870</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0.23</v>
+      </c>
+      <c r="L66">
+        <v>2.6</v>
+      </c>
+      <c r="M66">
+        <v>2.1032999999999998E-3</v>
+      </c>
+      <c r="N66">
+        <v>0.06</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66" s="11">
+        <v>2.0110000000000001E-4</v>
+      </c>
+      <c r="Q66" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R66" s="11">
+        <v>4</v>
+      </c>
+      <c r="S66">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66" s="11">
+        <f>5*0</f>
+        <v>0</v>
+      </c>
+      <c r="V66" s="2">
+        <v>109</v>
+      </c>
+      <c r="W66">
+        <v>42</v>
+      </c>
+      <c r="X66" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y66" s="2">
+        <f t="shared" si="40"/>
+        <v>119.9</v>
+      </c>
+      <c r="Z66" s="2">
+        <f t="shared" si="39"/>
+        <v>46.2</v>
+      </c>
+      <c r="AA66" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB66" s="2">
+        <f t="shared" si="35"/>
+        <v>59.95</v>
+      </c>
+      <c r="AC66" s="2">
+        <f t="shared" si="36"/>
+        <v>106.15</v>
+      </c>
+      <c r="AD66" s="4">
+        <f t="shared" si="37"/>
+        <v>231.16500000000002</v>
+      </c>
+      <c r="AE66" s="4"/>
+      <c r="AF66">
+        <f t="shared" si="38"/>
+        <v>166.10000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <f t="shared" ref="A67:A82" si="41">IF(B67=B66,A66,A66+1)</f>
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67">
+        <v>500</v>
+      </c>
+      <c r="G67" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H67">
+        <v>1576</v>
+      </c>
+      <c r="I67">
+        <v>1870</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0.23</v>
+      </c>
+      <c r="L67">
+        <v>2.6</v>
+      </c>
+      <c r="M67">
+        <v>1E-3</v>
+      </c>
+      <c r="N67">
+        <v>0.05</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>5</v>
+      </c>
+      <c r="V67" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="W67">
+        <v>18.2</v>
+      </c>
+      <c r="X67" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y67" s="2">
+        <f t="shared" si="40"/>
+        <v>27.574999999999999</v>
+      </c>
+      <c r="Z67" s="2">
+        <f t="shared" si="39"/>
+        <v>13.924999999999999</v>
+      </c>
+      <c r="AA67" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB67" s="2">
+        <f t="shared" si="35"/>
+        <v>13.7875</v>
+      </c>
+      <c r="AC67" s="2">
+        <f t="shared" si="36"/>
+        <v>27.712499999999999</v>
+      </c>
+      <c r="AD67" s="4">
+        <f t="shared" si="37"/>
+        <v>58.113749999999996</v>
+      </c>
+      <c r="AE67" s="4"/>
+      <c r="AF67">
+        <f t="shared" si="38"/>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68">
+        <v>500</v>
+      </c>
+      <c r="G68" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H68">
+        <v>1576</v>
+      </c>
+      <c r="I68">
+        <v>1870</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0.23</v>
+      </c>
+      <c r="L68">
+        <v>2.6</v>
+      </c>
+      <c r="M68">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N68">
+        <v>0.06</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68" s="11">
+        <v>2.0110000000000001E-4</v>
+      </c>
+      <c r="Q68" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R68" s="11">
+        <v>4</v>
+      </c>
+      <c r="S68">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68" s="11">
+        <f>5*0</f>
+        <v>0</v>
+      </c>
+      <c r="V68" s="2">
+        <v>117.5</v>
+      </c>
+      <c r="W68">
+        <v>43.5</v>
+      </c>
+      <c r="X68" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y68" s="2">
+        <f t="shared" si="40"/>
+        <v>129.25</v>
+      </c>
+      <c r="Z68" s="2">
+        <f t="shared" si="39"/>
+        <v>47.85</v>
+      </c>
+      <c r="AA68" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB68" s="2">
+        <f t="shared" si="35"/>
+        <v>64.625</v>
+      </c>
+      <c r="AC68" s="2">
+        <f t="shared" si="36"/>
+        <v>112.47499999999999</v>
+      </c>
+      <c r="AD68" s="4">
+        <f t="shared" si="37"/>
+        <v>246.26250000000002</v>
+      </c>
+      <c r="AE68" s="4"/>
+      <c r="AF68">
+        <f t="shared" si="38"/>
+        <v>177.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>500</v>
+      </c>
+      <c r="G69" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H69">
+        <v>1576</v>
+      </c>
+      <c r="I69">
+        <v>1870</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0.23</v>
+      </c>
+      <c r="L69">
+        <v>2.6</v>
+      </c>
+      <c r="M69">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N69">
+        <v>0.03</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>10</v>
+      </c>
+      <c r="V69" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="W69">
+        <v>18.7</v>
+      </c>
+      <c r="X69" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y69" s="2">
+        <f t="shared" si="40"/>
+        <v>26.5</v>
+      </c>
+      <c r="Z69" s="2">
+        <f t="shared" si="39"/>
+        <v>14.307499999999999</v>
+      </c>
+      <c r="AA69" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB69" s="2">
+        <f t="shared" si="35"/>
+        <v>13.25</v>
+      </c>
+      <c r="AC69" s="2">
+        <f t="shared" si="36"/>
+        <v>27.557499999999997</v>
+      </c>
+      <c r="AD69" s="4">
+        <f t="shared" si="37"/>
+        <v>57.236250000000005</v>
+      </c>
+      <c r="AE69" s="4"/>
+      <c r="AF69">
+        <f t="shared" si="38"/>
+        <v>40.807499999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70">
+        <v>500</v>
+      </c>
+      <c r="G70" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H70">
+        <v>1576</v>
+      </c>
+      <c r="I70">
+        <v>1870</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0.23</v>
+      </c>
+      <c r="L70">
+        <v>2.6</v>
+      </c>
+      <c r="M70">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N70">
+        <v>0.06</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70" s="11">
+        <f>3.14*10^(-4)</f>
+        <v>3.1400000000000004E-4</v>
+      </c>
+      <c r="Q70" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R70" s="11">
+        <v>4</v>
+      </c>
+      <c r="S70">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70" s="11">
+        <f>10*0</f>
+        <v>0</v>
+      </c>
+      <c r="V70" s="2">
+        <v>122.5</v>
+      </c>
+      <c r="W70">
+        <v>44.35</v>
+      </c>
+      <c r="X70" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y70" s="2">
+        <f t="shared" si="40"/>
+        <v>134.75</v>
+      </c>
+      <c r="Z70" s="2">
+        <f t="shared" si="39"/>
+        <v>48.785000000000004</v>
+      </c>
+      <c r="AA70" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB70" s="2">
+        <f t="shared" si="35"/>
+        <v>67.375</v>
+      </c>
+      <c r="AC70" s="2">
+        <f t="shared" si="36"/>
+        <v>116.16</v>
+      </c>
+      <c r="AD70" s="4">
+        <f t="shared" si="37"/>
+        <v>255.09000000000003</v>
+      </c>
+      <c r="AE70" s="4"/>
+      <c r="AF70">
+        <f t="shared" si="38"/>
+        <v>183.535</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71">
+        <v>500</v>
+      </c>
+      <c r="G71" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H71">
+        <v>1576</v>
+      </c>
+      <c r="I71">
+        <v>1870</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0.23</v>
+      </c>
+      <c r="L71">
+        <v>2.6</v>
+      </c>
+      <c r="M71">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N71">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>10</v>
+      </c>
+      <c r="V71" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="W71">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="X71" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y71" s="2">
+        <f t="shared" si="40"/>
+        <v>28.25</v>
+      </c>
+      <c r="Z71" s="2">
+        <f t="shared" si="39"/>
+        <v>13.807500000000001</v>
+      </c>
+      <c r="AA71" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB71" s="2">
+        <f t="shared" si="35"/>
+        <v>14.125</v>
+      </c>
+      <c r="AC71" s="2">
+        <f t="shared" si="36"/>
+        <v>27.932500000000001</v>
+      </c>
+      <c r="AD71" s="4">
+        <f t="shared" si="37"/>
+        <v>58.848750000000003</v>
+      </c>
+      <c r="AE71" s="4"/>
+      <c r="AF71">
+        <f t="shared" si="38"/>
+        <v>42.057500000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>500</v>
+      </c>
+      <c r="G72" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H72">
+        <v>1576</v>
+      </c>
+      <c r="I72">
+        <v>1870</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>0.23</v>
+      </c>
+      <c r="L72">
+        <v>2.6</v>
+      </c>
+      <c r="M72">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N72">
+        <v>0.06</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72" s="11">
+        <v>2.0110000000000001E-4</v>
+      </c>
+      <c r="Q72" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R72" s="11">
+        <v>4</v>
+      </c>
+      <c r="S72">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72" s="11">
+        <f>5*0</f>
+        <v>0</v>
+      </c>
+      <c r="V72" s="2">
+        <v>102.5</v>
+      </c>
+      <c r="W72">
+        <v>41.5</v>
+      </c>
+      <c r="X72" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y72" s="2">
+        <f t="shared" si="40"/>
+        <v>112.75</v>
+      </c>
+      <c r="Z72" s="2">
+        <f t="shared" si="39"/>
+        <v>45.65</v>
+      </c>
+      <c r="AA72" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AB72" s="2">
+        <f t="shared" si="35"/>
+        <v>56.375</v>
+      </c>
+      <c r="AC72" s="2">
+        <f t="shared" si="36"/>
+        <v>102.02500000000001</v>
+      </c>
+      <c r="AD72" s="4">
+        <f t="shared" si="37"/>
+        <v>220.6875</v>
+      </c>
+      <c r="AE72" s="4"/>
+      <c r="AF72">
+        <f t="shared" si="38"/>
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73">
+        <v>500</v>
+      </c>
+      <c r="G73" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H73">
+        <v>1576</v>
+      </c>
+      <c r="I73">
+        <v>1870</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0.23</v>
+      </c>
+      <c r="L73">
+        <v>2.6</v>
+      </c>
+      <c r="M73">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N73">
+        <v>0.03</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>10</v>
+      </c>
+      <c r="V73" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="W73">
+        <v>15.3</v>
+      </c>
+      <c r="X73" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y73" s="2">
+        <f t="shared" si="40"/>
+        <v>21.324999999999999</v>
+      </c>
+      <c r="Z73" s="2">
+        <f t="shared" si="39"/>
+        <v>11.324999999999999</v>
+      </c>
+      <c r="AA73" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AB73" s="2">
+        <f t="shared" si="35"/>
+        <v>10.6625</v>
+      </c>
+      <c r="AC73" s="2">
+        <f t="shared" si="36"/>
+        <v>21.987499999999997</v>
+      </c>
+      <c r="AD73" s="4">
+        <f t="shared" si="37"/>
+        <v>45.776249999999997</v>
+      </c>
+      <c r="AE73" s="4"/>
+      <c r="AF73">
+        <f t="shared" si="38"/>
+        <v>32.65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74">
+        <v>500</v>
+      </c>
+      <c r="G74" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H74">
+        <v>1576</v>
+      </c>
+      <c r="I74">
+        <v>1870</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0.23</v>
+      </c>
+      <c r="L74">
+        <v>2.6</v>
+      </c>
+      <c r="M74">
+        <v>1.8993E-3</v>
+      </c>
+      <c r="N74">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>5</v>
+      </c>
+      <c r="V74" s="2">
+        <v>105</v>
+      </c>
+      <c r="W74">
+        <v>38</v>
+      </c>
+      <c r="X74" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y74" s="2">
+        <f t="shared" si="40"/>
+        <v>115.5</v>
+      </c>
+      <c r="Z74" s="2">
+        <f t="shared" si="39"/>
+        <v>41.8</v>
+      </c>
+      <c r="AA74" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="AB74" s="2">
+        <f t="shared" si="35"/>
+        <v>86.625</v>
+      </c>
+      <c r="AC74" s="2">
+        <f t="shared" si="36"/>
+        <v>70.674999999999997</v>
+      </c>
+      <c r="AD74" s="4">
+        <f t="shared" si="37"/>
+        <v>218.625</v>
+      </c>
+      <c r="AE74" s="4"/>
+      <c r="AF74">
+        <f t="shared" si="38"/>
+        <v>157.30000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75">
+        <v>500</v>
+      </c>
+      <c r="G75" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H75">
+        <v>1576</v>
+      </c>
+      <c r="I75">
+        <v>1870</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>0.23</v>
+      </c>
+      <c r="L75">
+        <v>2.6</v>
+      </c>
+      <c r="M75">
+        <v>1.3338E-3</v>
+      </c>
+      <c r="N75">
+        <v>0.03</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="V75" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="W75">
+        <v>15.6</v>
+      </c>
+      <c r="X75" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y75" s="2">
+        <f t="shared" si="40"/>
+        <v>35.15</v>
+      </c>
+      <c r="Z75" s="2">
+        <f t="shared" si="39"/>
+        <v>13.7</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="2">
+        <f t="shared" si="35"/>
+        <v>35.15</v>
+      </c>
+      <c r="AC75" s="2">
+        <f t="shared" si="36"/>
+        <v>13.7</v>
+      </c>
+      <c r="AD75" s="4">
+        <f t="shared" si="37"/>
+        <v>68.002499999999998</v>
+      </c>
+      <c r="AE75" s="4"/>
+      <c r="AF75">
+        <f t="shared" si="38"/>
+        <v>48.849999999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="6">
+        <v>25</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="6">
+        <v>500</v>
+      </c>
+      <c r="G76" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H76" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I76" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J76" s="6">
+        <v>1</v>
+      </c>
+      <c r="K76" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L76" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M76" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="N76" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O76" s="6">
+        <v>1</v>
+      </c>
+      <c r="P76" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="6">
+        <v>0</v>
+      </c>
+      <c r="R76" s="6">
+        <v>1</v>
+      </c>
+      <c r="S76" s="6">
+        <v>0</v>
+      </c>
+      <c r="T76" s="6">
+        <v>0</v>
+      </c>
+      <c r="U76" s="6">
+        <v>0</v>
+      </c>
+      <c r="V76" s="8">
+        <v>0</v>
+      </c>
+      <c r="W76" s="8">
+        <v>0</v>
+      </c>
+      <c r="X76" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y76" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AC76" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AD76" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="4"/>
+      <c r="AF76">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <f t="shared" si="41"/>
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77">
+        <v>500</v>
+      </c>
+      <c r="G77" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H77">
+        <v>1576</v>
+      </c>
+      <c r="I77">
+        <v>1870</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>0.23</v>
+      </c>
+      <c r="L77">
+        <v>2.6</v>
+      </c>
+      <c r="M77">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="N77">
+        <v>0.04</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77" s="2">
+        <v>32</v>
+      </c>
+      <c r="W77">
+        <v>10.3</v>
+      </c>
+      <c r="X77" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y77" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C77)),V77+X77*V77,IF(#REF!&lt;A77,V77-X78*V78/2,IF(A77&lt;A78,V77-(#REF!*#REF!)/2,V77-(X78*V78+#REF!*#REF!)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C77)),W77+X77*W77,IF(#REF!&lt;A77,W77-X78*W78/2,IF(A77&lt;A78,W77-(#REF!*#REF!)/2,W77-(X78*W78+#REF!*#REF!)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="2">
+        <f t="shared" ref="AB77:AB92" si="42">Y77*(1-AA77)</f>
+        <v>0</v>
+      </c>
+      <c r="AC77" s="2">
+        <f t="shared" ref="AC77:AC92" si="43">Y77*AA77 + Z77</f>
+        <v>0</v>
+      </c>
+      <c r="AD77" s="4">
+        <f t="shared" ref="AD77:AD92" si="44">1.35*Y77+1.5*Z77</f>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="4"/>
+      <c r="AF77">
+        <f t="shared" ref="AF77:AF92" si="45">AB77+AC77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <f t="shared" si="41"/>
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78">
+        <v>500</v>
+      </c>
+      <c r="G78" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H78">
+        <v>1576</v>
+      </c>
+      <c r="I78">
+        <v>1870</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>0.23</v>
+      </c>
+      <c r="L78">
+        <v>2.6</v>
+      </c>
+      <c r="M78">
+        <v>1.3078E-3</v>
+      </c>
+      <c r="N78">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>5</v>
+      </c>
+      <c r="V78" s="2">
+        <v>63</v>
+      </c>
+      <c r="W78">
+        <v>18.5</v>
+      </c>
+      <c r="X78" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C78)),V78+X78*V78,IF(A77&lt;A78,V78-X79*V79/2,IF(A78&lt;A79,V78-(X77*V77)/2,V78-(X79*V79+X77*V77)/2))),0)</f>
+        <v>63</v>
+      </c>
+      <c r="Z78" s="2">
+        <f t="shared" ref="Z78:Z92" si="46">IFERROR(IF(ISNUMBER(SEARCH("Appui",C78)),W78+X78*W78,IF(A77&lt;A78,W78-X79*W79/2,IF(A78&lt;A79,W78-(X77*W77)/2,W78-(X79*W79+X77*W77)/2))),0)</f>
+        <v>18.5</v>
+      </c>
+      <c r="AA78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="2">
+        <f t="shared" si="42"/>
+        <v>63</v>
+      </c>
+      <c r="AC78" s="2">
+        <f t="shared" si="43"/>
+        <v>18.5</v>
+      </c>
+      <c r="AD78" s="4">
+        <f t="shared" si="44"/>
+        <v>112.80000000000001</v>
+      </c>
+      <c r="AE78" s="4"/>
+      <c r="AF78">
+        <f t="shared" si="45"/>
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <f t="shared" si="41"/>
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="6">
+        <v>25</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="6">
+        <v>500</v>
+      </c>
+      <c r="G79" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H79" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I79" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J79" s="6">
+        <v>1</v>
+      </c>
+      <c r="K79" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L79" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M79" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="N79" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O79" s="6">
+        <v>1</v>
+      </c>
+      <c r="P79" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="6">
+        <v>0</v>
+      </c>
+      <c r="R79" s="6">
+        <v>1</v>
+      </c>
+      <c r="S79" s="6">
+        <v>0</v>
+      </c>
+      <c r="T79" s="6">
+        <v>0</v>
+      </c>
+      <c r="U79" s="6">
+        <v>0</v>
+      </c>
+      <c r="V79" s="8">
+        <v>0</v>
+      </c>
+      <c r="W79" s="8">
+        <v>0</v>
+      </c>
+      <c r="X79" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y79" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="AB79" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AC79" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AD79" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AE79" s="4"/>
+      <c r="AF79">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <f t="shared" si="41"/>
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80">
+        <v>500</v>
+      </c>
+      <c r="G80" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H80">
+        <v>1576</v>
+      </c>
+      <c r="I80">
+        <v>1870</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>0.23</v>
+      </c>
+      <c r="L80">
+        <v>2.6</v>
+      </c>
+      <c r="M80">
+        <v>1.3286000000000001E-3</v>
+      </c>
+      <c r="N80">
+        <v>0.06</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80" s="11">
+        <f>3.14*10^(-4)</f>
+        <v>3.1400000000000004E-4</v>
+      </c>
+      <c r="Q80" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R80" s="11">
+        <f>4*0</f>
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80" s="11">
+        <f>10*1</f>
+        <v>10</v>
+      </c>
+      <c r="V80" s="2">
+        <v>107.5</v>
+      </c>
+      <c r="W80">
+        <v>34</v>
+      </c>
+      <c r="X80" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="2">
+        <f t="shared" ref="Y80:Y92" si="47">IFERROR(IF(ISNUMBER(SEARCH("Appui",C80)),V80+X80*V80,IF(A79&lt;A80,V80-X81*V81/2,IF(A80&lt;A81,V80-(X79*V79)/2,V80-(X81*V81+X79*V79)/2))),0)</f>
+        <v>107.5</v>
+      </c>
+      <c r="Z80" s="2">
+        <f t="shared" ref="Z80:Z92" si="48">IFERROR(IF(ISNUMBER(SEARCH("Appui",C80)),W80+X80*W80,IF(A79&lt;A80,W80-X81*W81/2,IF(A80&lt;A81,W80-(X79*W79)/2,W80-(X81*W81+X79*W79)/2))),0)</f>
+        <v>34</v>
+      </c>
+      <c r="AA80" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB80" s="2">
+        <f t="shared" si="42"/>
+        <v>53.75</v>
+      </c>
+      <c r="AC80" s="2">
+        <f t="shared" si="43"/>
+        <v>87.75</v>
+      </c>
+      <c r="AD80" s="4">
+        <f t="shared" si="44"/>
+        <v>196.125</v>
+      </c>
+      <c r="AE80" s="4"/>
+      <c r="AF80">
+        <f t="shared" si="45"/>
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <f t="shared" si="41"/>
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81">
+        <v>500</v>
+      </c>
+      <c r="G81" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H81">
+        <v>1576</v>
+      </c>
+      <c r="I81">
+        <v>1870</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>0.23</v>
+      </c>
+      <c r="L81">
+        <v>2.6</v>
+      </c>
+      <c r="M81">
+        <v>3.3280000000000001E-4</v>
+      </c>
+      <c r="N81">
+        <v>0.03</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>7</v>
+      </c>
+      <c r="V81" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="W81">
+        <v>15.9</v>
+      </c>
+      <c r="X81" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y81" s="2">
+        <f t="shared" si="47"/>
+        <v>29.95</v>
+      </c>
+      <c r="Z81" s="2">
+        <f t="shared" si="48"/>
+        <v>13.8</v>
+      </c>
+      <c r="AA81" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AB81" s="2">
+        <f t="shared" si="42"/>
+        <v>14.975</v>
+      </c>
+      <c r="AC81" s="2">
+        <f t="shared" si="43"/>
+        <v>28.774999999999999</v>
+      </c>
+      <c r="AD81" s="4">
+        <f t="shared" si="44"/>
+        <v>61.132500000000007</v>
+      </c>
+      <c r="AE81" s="4"/>
+      <c r="AF81">
+        <f t="shared" si="45"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <f t="shared" si="41"/>
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82">
+        <v>500</v>
+      </c>
+      <c r="G82" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H82">
+        <v>1576</v>
+      </c>
+      <c r="I82">
+        <v>1870</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" s="11">
+        <f>0.23+0.21</f>
+        <v>0.44</v>
+      </c>
+      <c r="L82" s="11">
+        <f>2.6*0+1.4*1</f>
+        <v>1.4</v>
+      </c>
+      <c r="M82">
+        <v>2.1032999999999998E-3</v>
+      </c>
+      <c r="N82">
+        <v>0.06</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82" s="11">
+        <v>2.0110000000000001E-4</v>
+      </c>
+      <c r="Q82" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R82" s="11">
+        <f>4*0</f>
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82" s="11">
+        <f>5*1</f>
+        <v>5</v>
+      </c>
+      <c r="V82" s="2">
+        <v>109</v>
+      </c>
+      <c r="W82">
+        <v>42</v>
+      </c>
+      <c r="X82" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y82" s="2">
+        <f t="shared" si="47"/>
+        <v>119.9</v>
+      </c>
+      <c r="Z82" s="2">
+        <f t="shared" si="48"/>
+        <v>46.2</v>
+      </c>
+      <c r="AA82" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB82" s="2">
+        <f t="shared" si="42"/>
+        <v>59.95</v>
+      </c>
+      <c r="AC82" s="2">
+        <f t="shared" si="43"/>
+        <v>106.15</v>
+      </c>
+      <c r="AD82" s="4">
+        <f t="shared" si="44"/>
+        <v>231.16500000000002</v>
+      </c>
+      <c r="AE82" s="4"/>
+      <c r="AF82">
+        <f t="shared" si="45"/>
+        <v>166.10000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <f t="shared" ref="A83:A92" si="49">IF(B83=B82,A82,A82+1)</f>
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83">
+        <v>500</v>
+      </c>
+      <c r="G83" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H83">
+        <v>1576</v>
+      </c>
+      <c r="I83">
+        <v>1870</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>0.23</v>
+      </c>
+      <c r="L83">
+        <v>2.6</v>
+      </c>
+      <c r="M83">
+        <v>1E-3</v>
+      </c>
+      <c r="N83">
+        <v>0.05</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>5</v>
+      </c>
+      <c r="V83" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="W83">
+        <v>18.2</v>
+      </c>
+      <c r="X83" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y83" s="2">
+        <f t="shared" si="47"/>
+        <v>27.574999999999999</v>
+      </c>
+      <c r="Z83" s="2">
+        <f t="shared" si="48"/>
+        <v>13.924999999999999</v>
+      </c>
+      <c r="AA83" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB83" s="2">
+        <f t="shared" si="42"/>
+        <v>13.7875</v>
+      </c>
+      <c r="AC83" s="2">
+        <f t="shared" si="43"/>
+        <v>27.712499999999999</v>
+      </c>
+      <c r="AD83" s="4">
+        <f t="shared" si="44"/>
+        <v>58.113749999999996</v>
+      </c>
+      <c r="AE83" s="4"/>
+      <c r="AF83">
+        <f t="shared" si="45"/>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>500</v>
+      </c>
+      <c r="G84" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H84">
+        <v>1576</v>
+      </c>
+      <c r="I84">
+        <v>1870</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" s="11">
+        <f>0.23+0.21</f>
+        <v>0.44</v>
+      </c>
+      <c r="L84" s="11">
+        <f>2.6*0+2*1</f>
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N84">
+        <v>0.06</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84" s="11">
+        <v>2.0110000000000001E-4</v>
+      </c>
+      <c r="Q84" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R84" s="11">
+        <f>4*0</f>
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84" s="11">
+        <f>5*1</f>
+        <v>5</v>
+      </c>
+      <c r="V84" s="2">
+        <v>117.5</v>
+      </c>
+      <c r="W84">
+        <v>43.5</v>
+      </c>
+      <c r="X84" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y84" s="2">
+        <f t="shared" si="47"/>
+        <v>129.25</v>
+      </c>
+      <c r="Z84" s="2">
+        <f t="shared" si="48"/>
+        <v>47.85</v>
+      </c>
+      <c r="AA84" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB84" s="2">
+        <f t="shared" si="42"/>
+        <v>64.625</v>
+      </c>
+      <c r="AC84" s="2">
+        <f t="shared" si="43"/>
+        <v>112.47499999999999</v>
+      </c>
+      <c r="AD84" s="4">
+        <f t="shared" si="44"/>
+        <v>246.26250000000002</v>
+      </c>
+      <c r="AE84" s="4"/>
+      <c r="AF84">
+        <f t="shared" si="45"/>
+        <v>177.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85">
+        <v>500</v>
+      </c>
+      <c r="G85" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H85">
+        <v>1576</v>
+      </c>
+      <c r="I85">
+        <v>1870</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>0.23</v>
+      </c>
+      <c r="L85">
+        <v>2.6</v>
+      </c>
+      <c r="M85">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N85">
+        <v>0.03</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>10</v>
+      </c>
+      <c r="V85" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="W85">
+        <v>18.7</v>
+      </c>
+      <c r="X85" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y85" s="2">
+        <f t="shared" si="47"/>
+        <v>26.5</v>
+      </c>
+      <c r="Z85" s="2">
+        <f t="shared" si="48"/>
+        <v>14.307499999999999</v>
+      </c>
+      <c r="AA85" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB85" s="2">
+        <f t="shared" si="42"/>
+        <v>13.25</v>
+      </c>
+      <c r="AC85" s="2">
+        <f t="shared" si="43"/>
+        <v>27.557499999999997</v>
+      </c>
+      <c r="AD85" s="4">
+        <f t="shared" si="44"/>
+        <v>57.236250000000005</v>
+      </c>
+      <c r="AE85" s="4"/>
+      <c r="AF85">
+        <f t="shared" si="45"/>
+        <v>40.807499999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86">
+        <v>500</v>
+      </c>
+      <c r="G86" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H86">
+        <v>1576</v>
+      </c>
+      <c r="I86">
+        <v>1870</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" s="11">
+        <f>0.23+0.21</f>
+        <v>0.44</v>
+      </c>
+      <c r="L86" s="11">
+        <f>2.6*0+2*1</f>
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N86">
+        <v>0.06</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86" s="11">
+        <f>3.14*10^(-4)</f>
+        <v>3.1400000000000004E-4</v>
+      </c>
+      <c r="Q86" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R86" s="11">
+        <f>4*0</f>
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86" s="11">
+        <f>10*0.5</f>
+        <v>5</v>
+      </c>
+      <c r="V86" s="2">
+        <v>122.5</v>
+      </c>
+      <c r="W86">
+        <v>44.35</v>
+      </c>
+      <c r="X86" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y86" s="2">
+        <f t="shared" si="47"/>
+        <v>134.75</v>
+      </c>
+      <c r="Z86" s="2">
+        <f t="shared" si="48"/>
+        <v>48.785000000000004</v>
+      </c>
+      <c r="AA86" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB86" s="2">
+        <f t="shared" si="42"/>
+        <v>67.375</v>
+      </c>
+      <c r="AC86" s="2">
+        <f t="shared" si="43"/>
+        <v>116.16</v>
+      </c>
+      <c r="AD86" s="4">
+        <f t="shared" si="44"/>
+        <v>255.09000000000003</v>
+      </c>
+      <c r="AE86" s="4"/>
+      <c r="AF86">
+        <f t="shared" si="45"/>
+        <v>183.535</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87">
+        <v>25</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87">
+        <v>500</v>
+      </c>
+      <c r="G87" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H87">
+        <v>1576</v>
+      </c>
+      <c r="I87">
+        <v>1870</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>0.23</v>
+      </c>
+      <c r="L87">
+        <v>2.6</v>
+      </c>
+      <c r="M87">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N87">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>10</v>
+      </c>
+      <c r="V87" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="W87">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="X87" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y87" s="2">
+        <f t="shared" si="47"/>
+        <v>28.25</v>
+      </c>
+      <c r="Z87" s="2">
+        <f t="shared" si="48"/>
+        <v>13.807500000000001</v>
+      </c>
+      <c r="AA87" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB87" s="2">
+        <f t="shared" si="42"/>
+        <v>14.125</v>
+      </c>
+      <c r="AC87" s="2">
+        <f t="shared" si="43"/>
+        <v>27.932500000000001</v>
+      </c>
+      <c r="AD87" s="4">
+        <f t="shared" si="44"/>
+        <v>58.848750000000003</v>
+      </c>
+      <c r="AE87" s="4"/>
+      <c r="AF87">
+        <f t="shared" si="45"/>
+        <v>42.057500000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>500</v>
+      </c>
+      <c r="G88" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H88">
+        <v>1576</v>
+      </c>
+      <c r="I88">
+        <v>1870</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" s="11">
+        <f>0.23+0.21</f>
+        <v>0.44</v>
+      </c>
+      <c r="L88" s="11">
+        <f>2.6*0+2*1</f>
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N88">
+        <v>0.06</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88" s="11">
+        <v>2.0110000000000001E-4</v>
+      </c>
+      <c r="Q88" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R88" s="11">
+        <f>4*0</f>
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88" s="11">
+        <f>5*1</f>
+        <v>5</v>
+      </c>
+      <c r="V88" s="2">
+        <v>102.5</v>
+      </c>
+      <c r="W88">
+        <v>41.5</v>
+      </c>
+      <c r="X88" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y88" s="2">
+        <f t="shared" si="47"/>
+        <v>112.75</v>
+      </c>
+      <c r="Z88" s="2">
+        <f t="shared" si="48"/>
+        <v>45.65</v>
+      </c>
+      <c r="AA88" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AB88" s="2">
+        <f t="shared" si="42"/>
+        <v>56.375</v>
+      </c>
+      <c r="AC88" s="2">
+        <f t="shared" si="43"/>
+        <v>102.02500000000001</v>
+      </c>
+      <c r="AD88" s="4">
+        <f t="shared" si="44"/>
+        <v>220.6875</v>
+      </c>
+      <c r="AE88" s="4"/>
+      <c r="AF88">
+        <f t="shared" si="45"/>
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89">
+        <v>500</v>
+      </c>
+      <c r="G89" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H89">
+        <v>1576</v>
+      </c>
+      <c r="I89">
+        <v>1870</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>0.23</v>
+      </c>
+      <c r="L89">
+        <v>2.6</v>
+      </c>
+      <c r="M89">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N89">
+        <v>0.03</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>10</v>
+      </c>
+      <c r="V89" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="W89">
+        <v>15.3</v>
+      </c>
+      <c r="X89" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y89" s="2">
+        <f t="shared" si="47"/>
+        <v>21.324999999999999</v>
+      </c>
+      <c r="Z89" s="2">
+        <f t="shared" si="48"/>
+        <v>11.324999999999999</v>
+      </c>
+      <c r="AA89" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AB89" s="2">
+        <f t="shared" si="42"/>
+        <v>10.6625</v>
+      </c>
+      <c r="AC89" s="2">
+        <f t="shared" si="43"/>
+        <v>21.987499999999997</v>
+      </c>
+      <c r="AD89" s="4">
+        <f t="shared" si="44"/>
+        <v>45.776249999999997</v>
+      </c>
+      <c r="AE89" s="4"/>
+      <c r="AF89">
+        <f t="shared" si="45"/>
+        <v>32.65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>500</v>
+      </c>
+      <c r="G90" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H90">
+        <v>1576</v>
+      </c>
+      <c r="I90">
+        <v>1870</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" s="11">
+        <f>0.23+0.21</f>
+        <v>0.44</v>
+      </c>
+      <c r="L90" s="11">
+        <f>2.6*0+2*1</f>
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>1.8993E-3</v>
+      </c>
+      <c r="N90">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>5</v>
+      </c>
+      <c r="V90" s="2">
+        <v>105</v>
+      </c>
+      <c r="W90">
+        <v>38</v>
+      </c>
+      <c r="X90" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y90" s="2">
+        <f t="shared" si="47"/>
+        <v>115.5</v>
+      </c>
+      <c r="Z90" s="2">
+        <f t="shared" si="48"/>
+        <v>41.8</v>
+      </c>
+      <c r="AA90" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="AB90" s="2">
+        <f t="shared" si="42"/>
+        <v>86.625</v>
+      </c>
+      <c r="AC90" s="2">
+        <f t="shared" si="43"/>
+        <v>70.674999999999997</v>
+      </c>
+      <c r="AD90" s="4">
+        <f t="shared" si="44"/>
+        <v>218.625</v>
+      </c>
+      <c r="AE90" s="4"/>
+      <c r="AF90">
+        <f t="shared" si="45"/>
+        <v>157.30000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91">
+        <v>25</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91">
+        <v>500</v>
+      </c>
+      <c r="G91" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H91">
+        <v>1576</v>
+      </c>
+      <c r="I91">
+        <v>1870</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>0.23</v>
+      </c>
+      <c r="L91">
+        <v>2.6</v>
+      </c>
+      <c r="M91">
+        <v>1.3338E-3</v>
+      </c>
+      <c r="N91">
+        <v>0.03</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="W91">
+        <v>15.6</v>
+      </c>
+      <c r="X91" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y91" s="2">
+        <f t="shared" si="47"/>
+        <v>35.15</v>
+      </c>
+      <c r="Z91" s="2">
+        <f t="shared" si="48"/>
+        <v>13.7</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="2">
+        <f t="shared" si="42"/>
+        <v>35.15</v>
+      </c>
+      <c r="AC91" s="2">
+        <f t="shared" si="43"/>
+        <v>13.7</v>
+      </c>
+      <c r="AD91" s="4">
+        <f t="shared" si="44"/>
+        <v>68.002499999999998</v>
+      </c>
+      <c r="AE91" s="4"/>
+      <c r="AF91">
+        <f t="shared" si="45"/>
+        <v>48.849999999999994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="6">
+        <v>25</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="6">
+        <v>500</v>
+      </c>
+      <c r="G92" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H92" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I92" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J92" s="6">
+        <v>1</v>
+      </c>
+      <c r="K92" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L92" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M92" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="N92" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O92" s="6">
+        <v>1</v>
+      </c>
+      <c r="P92" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="6">
+        <v>0</v>
+      </c>
+      <c r="R92" s="6">
+        <v>1</v>
+      </c>
+      <c r="S92" s="6">
+        <v>0</v>
+      </c>
+      <c r="T92" s="6">
+        <v>0</v>
+      </c>
+      <c r="U92" s="6">
+        <v>0</v>
+      </c>
+      <c r="V92" s="8">
+        <v>0</v>
+      </c>
+      <c r="W92" s="8">
+        <v>0</v>
+      </c>
+      <c r="X92" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y92" s="2">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="Z92" s="2">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AC92" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AD92" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AE92" s="4"/>
+      <c r="AF92">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="X2:X17 X19:X47 X51:X56 X60:X61">
+  <conditionalFormatting sqref="X2:X17 X19:X47 X51:X56 X60:X75 Y63:Z63">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$A2="Travée"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X77:X91 Y79:Z79">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A2="Travée"</formula>
+      <formula>$A77="Travée"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calculs/PH2/DataBase_PH2_FileB_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileB_V6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84997367-A454-446C-BFCD-74D3CB40AEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E90BE6-2929-4900-89BD-CFDF8073A1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="58">
   <si>
     <t>fck</t>
   </si>
@@ -780,7 +780,35 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1125,11 +1153,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
-  <dimension ref="A1:AT92"/>
+  <dimension ref="A1:AT140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH70" sqref="AH70"/>
+      <selection pane="topRight" activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1686,8 +1714,9 @@
       <c r="L6">
         <v>2.6</v>
       </c>
-      <c r="M6">
-        <v>1.3286000000000001E-3</v>
+      <c r="M6" s="11">
+        <f>0.0013286 + 12*1.131*0.0001</f>
+        <v>2.6858000000000003E-3</v>
       </c>
       <c r="N6">
         <v>0.06</v>
@@ -7692,8 +7721,9 @@
       <c r="L64">
         <v>2.6</v>
       </c>
-      <c r="M64">
-        <v>1.3286000000000001E-3</v>
+      <c r="M64" s="11">
+        <f>0.0013286 + 12*1.131*0.0001</f>
+        <v>2.6858000000000003E-3</v>
       </c>
       <c r="N64">
         <v>0.06</v>
@@ -7709,7 +7739,8 @@
         <v>0.04</v>
       </c>
       <c r="R64" s="11">
-        <v>4</v>
+        <f>4*0</f>
+        <v>0</v>
       </c>
       <c r="S64">
         <v>2.9099999999999999E-5</v>
@@ -9084,20 +9115,20 @@
         <v>0</v>
       </c>
       <c r="AB77" s="2">
-        <f t="shared" ref="AB77:AB92" si="42">Y77*(1-AA77)</f>
+        <f t="shared" ref="AB77:AB124" si="42">Y77*(1-AA77)</f>
         <v>0</v>
       </c>
       <c r="AC77" s="2">
-        <f t="shared" ref="AC77:AC92" si="43">Y77*AA77 + Z77</f>
+        <f t="shared" ref="AC77:AC124" si="43">Y77*AA77 + Z77</f>
         <v>0</v>
       </c>
       <c r="AD77" s="4">
-        <f t="shared" ref="AD77:AD92" si="44">1.35*Y77+1.5*Z77</f>
+        <f t="shared" ref="AD77:AD124" si="44">1.35*Y77+1.5*Z77</f>
         <v>0</v>
       </c>
       <c r="AE77" s="4"/>
       <c r="AF77">
-        <f t="shared" ref="AF77:AF92" si="45">AB77+AC77</f>
+        <f t="shared" ref="AF77:AF124" si="45">AB77+AC77</f>
         <v>0</v>
       </c>
     </row>
@@ -9180,7 +9211,7 @@
         <v>63</v>
       </c>
       <c r="Z78" s="2">
-        <f t="shared" ref="Z78:Z92" si="46">IFERROR(IF(ISNUMBER(SEARCH("Appui",C78)),W78+X78*W78,IF(A77&lt;A78,W78-X79*W79/2,IF(A78&lt;A79,W78-(X77*W77)/2,W78-(X79*W79+X77*W77)/2))),0)</f>
+        <f t="shared" ref="Z78" si="46">IFERROR(IF(ISNUMBER(SEARCH("Appui",C78)),W78+X78*W78,IF(A77&lt;A78,W78-X79*W79/2,IF(A78&lt;A79,W78-(X77*W77)/2,W78-(X79*W79+X77*W77)/2))),0)</f>
         <v>18.5</v>
       </c>
       <c r="AA78" s="3">
@@ -9343,8 +9374,9 @@
       <c r="L80">
         <v>2.6</v>
       </c>
-      <c r="M80">
-        <v>1.3286000000000001E-3</v>
+      <c r="M80" s="11">
+        <f>0.0013286 + 12*1.131*0.0001</f>
+        <v>2.6858000000000003E-3</v>
       </c>
       <c r="N80">
         <v>0.06</v>
@@ -9383,11 +9415,11 @@
         <v>0</v>
       </c>
       <c r="Y80" s="2">
-        <f t="shared" ref="Y80:Y92" si="47">IFERROR(IF(ISNUMBER(SEARCH("Appui",C80)),V80+X80*V80,IF(A79&lt;A80,V80-X81*V81/2,IF(A80&lt;A81,V80-(X79*V79)/2,V80-(X81*V81+X79*V79)/2))),0)</f>
+        <f t="shared" ref="Y80:Y93" si="47">IFERROR(IF(ISNUMBER(SEARCH("Appui",C80)),V80+X80*V80,IF(A79&lt;A80,V80-X81*V81/2,IF(A80&lt;A81,V80-(X79*V79)/2,V80-(X81*V81+X79*V79)/2))),0)</f>
         <v>107.5</v>
       </c>
       <c r="Z80" s="2">
-        <f t="shared" ref="Z80:Z92" si="48">IFERROR(IF(ISNUMBER(SEARCH("Appui",C80)),W80+X80*W80,IF(A79&lt;A80,W80-X81*W81/2,IF(A80&lt;A81,W80-(X79*W79)/2,W80-(X81*W81+X79*W79)/2))),0)</f>
+        <f t="shared" ref="Z80:Z108" si="48">IFERROR(IF(ISNUMBER(SEARCH("Appui",C80)),W80+X80*W80,IF(A79&lt;A80,W80-X81*W81/2,IF(A80&lt;A81,W80-(X79*W79)/2,W80-(X81*W81+X79*W79)/2))),0)</f>
         <v>34</v>
       </c>
       <c r="AA80" s="14">
@@ -9623,7 +9655,7 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A83">
-        <f t="shared" ref="A83:A92" si="49">IF(B83=B82,A82,A82+1)</f>
+        <f t="shared" ref="A83:A140" si="49">IF(B83=B82,A82,A82+1)</f>
         <v>8</v>
       </c>
       <c r="B83" t="s">
@@ -10664,16 +10696,4993 @@
         <v>0</v>
       </c>
     </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93">
+        <v>25</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93">
+        <v>500</v>
+      </c>
+      <c r="G93" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H93">
+        <v>1576</v>
+      </c>
+      <c r="I93">
+        <v>1870</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>0.23</v>
+      </c>
+      <c r="L93">
+        <v>2.6</v>
+      </c>
+      <c r="M93">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="N93">
+        <v>0.04</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>1</v>
+      </c>
+      <c r="V93" s="2">
+        <v>32</v>
+      </c>
+      <c r="W93">
+        <v>10.3</v>
+      </c>
+      <c r="X93" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y93" s="2">
+        <f t="shared" si="47"/>
+        <v>32</v>
+      </c>
+      <c r="Z93" s="2">
+        <f t="shared" si="48"/>
+        <v>10.3</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="2">
+        <f t="shared" si="42"/>
+        <v>32</v>
+      </c>
+      <c r="AC93" s="2">
+        <f t="shared" si="43"/>
+        <v>10.3</v>
+      </c>
+      <c r="AD93" s="4">
+        <f t="shared" si="44"/>
+        <v>58.650000000000006</v>
+      </c>
+      <c r="AE93" s="4"/>
+      <c r="AF93">
+        <f t="shared" si="45"/>
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94">
+        <v>25</v>
+      </c>
+      <c r="E94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94">
+        <v>500</v>
+      </c>
+      <c r="G94" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H94">
+        <v>1576</v>
+      </c>
+      <c r="I94">
+        <v>1870</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>0.23</v>
+      </c>
+      <c r="L94">
+        <v>2.6</v>
+      </c>
+      <c r="M94">
+        <v>1.3078E-3</v>
+      </c>
+      <c r="N94">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>5</v>
+      </c>
+      <c r="V94" s="2">
+        <v>63</v>
+      </c>
+      <c r="W94">
+        <v>18.5</v>
+      </c>
+      <c r="X94" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C94)),V94+X94*V94,IF(A93&lt;A94,V94-X95*V95/2,IF(A94&lt;A95,V94-(X93*V93)/2,V94-(X95*V95+X93*V93)/2))),0)</f>
+        <v>63</v>
+      </c>
+      <c r="Z94" s="2">
+        <f t="shared" si="48"/>
+        <v>18.5</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="2">
+        <f t="shared" si="42"/>
+        <v>63</v>
+      </c>
+      <c r="AC94" s="2">
+        <f t="shared" si="43"/>
+        <v>18.5</v>
+      </c>
+      <c r="AD94" s="4">
+        <f t="shared" si="44"/>
+        <v>112.80000000000001</v>
+      </c>
+      <c r="AE94" s="4"/>
+      <c r="AF94">
+        <f t="shared" si="45"/>
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="6">
+        <v>25</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="6">
+        <v>500</v>
+      </c>
+      <c r="G95" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H95" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I95" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J95" s="6">
+        <v>1</v>
+      </c>
+      <c r="K95" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L95" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M95" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="N95" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O95" s="6">
+        <v>1</v>
+      </c>
+      <c r="P95" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="6">
+        <v>0</v>
+      </c>
+      <c r="R95" s="6">
+        <v>1</v>
+      </c>
+      <c r="S95" s="6">
+        <v>0</v>
+      </c>
+      <c r="T95" s="6">
+        <v>0</v>
+      </c>
+      <c r="U95" s="6">
+        <v>0</v>
+      </c>
+      <c r="V95" s="8">
+        <v>0</v>
+      </c>
+      <c r="W95" s="8">
+        <v>0</v>
+      </c>
+      <c r="X95" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y95" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C95)),V95+X95*V95,IF(A94&lt;A95,V95-X96*V96/2,IF(A95&lt;A96,V95-(X94*V94)/2,V95-(X96*V96+X94*V94)/2))),0)</f>
+        <v>8.0625</v>
+      </c>
+      <c r="Z95" s="2">
+        <f t="shared" si="48"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="2">
+        <f t="shared" si="42"/>
+        <v>8.0625</v>
+      </c>
+      <c r="AC95" s="2">
+        <f t="shared" si="43"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AD95" s="4">
+        <f t="shared" si="44"/>
+        <v>14.709375</v>
+      </c>
+      <c r="AE95" s="4"/>
+      <c r="AF95">
+        <f t="shared" si="45"/>
+        <v>10.612500000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96">
+        <v>25</v>
+      </c>
+      <c r="E96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96">
+        <v>500</v>
+      </c>
+      <c r="G96" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H96">
+        <v>1576</v>
+      </c>
+      <c r="I96">
+        <v>1870</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>0.23</v>
+      </c>
+      <c r="L96">
+        <v>2.6</v>
+      </c>
+      <c r="M96" s="11">
+        <f>0.0013286 + 12*1.131*0.0001</f>
+        <v>2.6858000000000003E-3</v>
+      </c>
+      <c r="N96">
+        <v>0.06</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>10</v>
+      </c>
+      <c r="V96" s="2">
+        <v>107.5</v>
+      </c>
+      <c r="W96">
+        <v>34</v>
+      </c>
+      <c r="X96" s="9">
+        <v>-0.15</v>
+      </c>
+      <c r="Y96" s="2">
+        <f t="shared" ref="Y96:Y108" si="50">IFERROR(IF(ISNUMBER(SEARCH("Appui",C96)),V96+X96*V96,IF(A95&lt;A96,V96-X97*V97/2,IF(A96&lt;A97,V96-(X95*V95)/2,V96-(X97*V97+X95*V95)/2))),0)</f>
+        <v>91.375</v>
+      </c>
+      <c r="Z96" s="2">
+        <f t="shared" si="48"/>
+        <v>28.9</v>
+      </c>
+      <c r="AA96" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="2">
+        <f t="shared" si="42"/>
+        <v>91.375</v>
+      </c>
+      <c r="AC96" s="2">
+        <f t="shared" si="43"/>
+        <v>28.9</v>
+      </c>
+      <c r="AD96" s="4">
+        <f t="shared" si="44"/>
+        <v>166.70625000000001</v>
+      </c>
+      <c r="AE96" s="4"/>
+      <c r="AF96">
+        <f t="shared" si="45"/>
+        <v>120.27500000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97">
+        <v>500</v>
+      </c>
+      <c r="G97" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H97">
+        <v>1576</v>
+      </c>
+      <c r="I97">
+        <v>1870</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>0.23</v>
+      </c>
+      <c r="L97">
+        <v>2.6</v>
+      </c>
+      <c r="M97">
+        <v>3.3280000000000001E-4</v>
+      </c>
+      <c r="N97">
+        <v>0.03</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>7</v>
+      </c>
+      <c r="V97" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="W97">
+        <v>15.9</v>
+      </c>
+      <c r="X97" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y97" s="2">
+        <f t="shared" si="50"/>
+        <v>44.552499999999995</v>
+      </c>
+      <c r="Z97" s="2">
+        <f t="shared" si="48"/>
+        <v>18.87</v>
+      </c>
+      <c r="AA97" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="2">
+        <f t="shared" si="42"/>
+        <v>44.552499999999995</v>
+      </c>
+      <c r="AC97" s="2">
+        <f t="shared" si="43"/>
+        <v>18.87</v>
+      </c>
+      <c r="AD97" s="4">
+        <f t="shared" si="44"/>
+        <v>88.450874999999996</v>
+      </c>
+      <c r="AE97" s="4"/>
+      <c r="AF97">
+        <f t="shared" si="45"/>
+        <v>63.422499999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98">
+        <v>500</v>
+      </c>
+      <c r="G98" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H98">
+        <v>1576</v>
+      </c>
+      <c r="I98">
+        <v>1870</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>0.23</v>
+      </c>
+      <c r="L98">
+        <v>2.6</v>
+      </c>
+      <c r="M98">
+        <v>2.1032999999999998E-3</v>
+      </c>
+      <c r="N98">
+        <v>0.06</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>5</v>
+      </c>
+      <c r="V98" s="2">
+        <v>109</v>
+      </c>
+      <c r="W98">
+        <v>42</v>
+      </c>
+      <c r="X98" s="9">
+        <v>-0.02</v>
+      </c>
+      <c r="Y98" s="2">
+        <f t="shared" si="50"/>
+        <v>106.82</v>
+      </c>
+      <c r="Z98" s="2">
+        <f t="shared" si="48"/>
+        <v>41.16</v>
+      </c>
+      <c r="AA98" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="2">
+        <f t="shared" si="42"/>
+        <v>106.82</v>
+      </c>
+      <c r="AC98" s="2">
+        <f t="shared" si="43"/>
+        <v>41.16</v>
+      </c>
+      <c r="AD98" s="4">
+        <f t="shared" si="44"/>
+        <v>205.947</v>
+      </c>
+      <c r="AE98" s="4"/>
+      <c r="AF98">
+        <f t="shared" si="45"/>
+        <v>147.97999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99">
+        <v>500</v>
+      </c>
+      <c r="G99" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H99">
+        <v>1576</v>
+      </c>
+      <c r="I99">
+        <v>1870</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>0.23</v>
+      </c>
+      <c r="L99">
+        <v>2.6</v>
+      </c>
+      <c r="M99">
+        <v>1E-3</v>
+      </c>
+      <c r="N99">
+        <v>0.05</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>5</v>
+      </c>
+      <c r="V99" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="W99">
+        <v>18.2</v>
+      </c>
+      <c r="X99" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y99" s="2">
+        <f t="shared" si="50"/>
+        <v>39.99</v>
+      </c>
+      <c r="Z99" s="2">
+        <f t="shared" si="48"/>
+        <v>18.62</v>
+      </c>
+      <c r="AA99" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="2">
+        <f t="shared" si="42"/>
+        <v>39.99</v>
+      </c>
+      <c r="AC99" s="2">
+        <f t="shared" si="43"/>
+        <v>18.62</v>
+      </c>
+      <c r="AD99" s="4">
+        <f t="shared" si="44"/>
+        <v>81.916500000000013</v>
+      </c>
+      <c r="AE99" s="4"/>
+      <c r="AF99">
+        <f t="shared" si="45"/>
+        <v>58.61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>500</v>
+      </c>
+      <c r="G100" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H100">
+        <v>1576</v>
+      </c>
+      <c r="I100">
+        <v>1870</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>0.23</v>
+      </c>
+      <c r="L100">
+        <v>2.6</v>
+      </c>
+      <c r="M100">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N100">
+        <v>0.06</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>5</v>
+      </c>
+      <c r="V100" s="2">
+        <v>117.5</v>
+      </c>
+      <c r="W100">
+        <v>43.5</v>
+      </c>
+      <c r="X100" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="2">
+        <f t="shared" si="50"/>
+        <v>117.5</v>
+      </c>
+      <c r="Z100" s="2">
+        <f t="shared" si="48"/>
+        <v>43.5</v>
+      </c>
+      <c r="AA100" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="2">
+        <f t="shared" si="42"/>
+        <v>117.5</v>
+      </c>
+      <c r="AC100" s="2">
+        <f t="shared" si="43"/>
+        <v>43.5</v>
+      </c>
+      <c r="AD100" s="4">
+        <f t="shared" si="44"/>
+        <v>223.875</v>
+      </c>
+      <c r="AE100" s="4"/>
+      <c r="AF100">
+        <f t="shared" si="45"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101">
+        <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101">
+        <v>500</v>
+      </c>
+      <c r="G101" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H101">
+        <v>1576</v>
+      </c>
+      <c r="I101">
+        <v>1870</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>0.23</v>
+      </c>
+      <c r="L101">
+        <v>2.6</v>
+      </c>
+      <c r="M101">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N101">
+        <v>0.03</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>10</v>
+      </c>
+      <c r="V101" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="W101">
+        <v>18.7</v>
+      </c>
+      <c r="X101" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y101" s="2">
+        <f t="shared" si="50"/>
+        <v>38.5</v>
+      </c>
+      <c r="Z101" s="2">
+        <f t="shared" si="48"/>
+        <v>18.7</v>
+      </c>
+      <c r="AA101" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="2">
+        <f t="shared" si="42"/>
+        <v>38.5</v>
+      </c>
+      <c r="AC101" s="2">
+        <f t="shared" si="43"/>
+        <v>18.7</v>
+      </c>
+      <c r="AD101" s="4">
+        <f t="shared" si="44"/>
+        <v>80.025000000000006</v>
+      </c>
+      <c r="AE101" s="4"/>
+      <c r="AF101">
+        <f t="shared" si="45"/>
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102">
+        <v>25</v>
+      </c>
+      <c r="E102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102">
+        <v>500</v>
+      </c>
+      <c r="G102" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H102">
+        <v>1576</v>
+      </c>
+      <c r="I102">
+        <v>1870</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>0.23</v>
+      </c>
+      <c r="L102">
+        <v>2.6</v>
+      </c>
+      <c r="M102">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N102">
+        <v>0.06</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>10</v>
+      </c>
+      <c r="V102" s="2">
+        <v>122.5</v>
+      </c>
+      <c r="W102">
+        <v>44.35</v>
+      </c>
+      <c r="X102" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="2">
+        <f t="shared" si="50"/>
+        <v>122.5</v>
+      </c>
+      <c r="Z102" s="2">
+        <f t="shared" si="48"/>
+        <v>44.35</v>
+      </c>
+      <c r="AA102" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="2">
+        <f t="shared" si="42"/>
+        <v>122.5</v>
+      </c>
+      <c r="AC102" s="2">
+        <f t="shared" si="43"/>
+        <v>44.35</v>
+      </c>
+      <c r="AD102" s="4">
+        <f t="shared" si="44"/>
+        <v>231.9</v>
+      </c>
+      <c r="AE102" s="4"/>
+      <c r="AF102">
+        <f t="shared" si="45"/>
+        <v>166.85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103">
+        <v>25</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103">
+        <v>500</v>
+      </c>
+      <c r="G103" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H103">
+        <v>1576</v>
+      </c>
+      <c r="I103">
+        <v>1870</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>0.23</v>
+      </c>
+      <c r="L103">
+        <v>2.6</v>
+      </c>
+      <c r="M103">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N103">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>10</v>
+      </c>
+      <c r="V103" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="W103">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="X103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y103" s="2">
+        <f t="shared" si="50"/>
+        <v>39.5</v>
+      </c>
+      <c r="Z103" s="2">
+        <f t="shared" si="48"/>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AA103" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="2">
+        <f t="shared" si="42"/>
+        <v>39.5</v>
+      </c>
+      <c r="AC103" s="2">
+        <f t="shared" si="43"/>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AD103" s="4">
+        <f t="shared" si="44"/>
+        <v>80.475000000000009</v>
+      </c>
+      <c r="AE103" s="4"/>
+      <c r="AF103">
+        <f t="shared" si="45"/>
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104">
+        <v>25</v>
+      </c>
+      <c r="E104" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104">
+        <v>500</v>
+      </c>
+      <c r="G104" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H104">
+        <v>1576</v>
+      </c>
+      <c r="I104">
+        <v>1870</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>0.23</v>
+      </c>
+      <c r="L104">
+        <v>2.6</v>
+      </c>
+      <c r="M104">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N104">
+        <v>0.06</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>5</v>
+      </c>
+      <c r="V104" s="2">
+        <v>102.5</v>
+      </c>
+      <c r="W104">
+        <v>41.5</v>
+      </c>
+      <c r="X104" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="2">
+        <f t="shared" si="50"/>
+        <v>102.5</v>
+      </c>
+      <c r="Z104" s="2">
+        <f t="shared" si="48"/>
+        <v>41.5</v>
+      </c>
+      <c r="AA104" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="2">
+        <f t="shared" si="42"/>
+        <v>102.5</v>
+      </c>
+      <c r="AC104" s="2">
+        <f t="shared" si="43"/>
+        <v>41.5</v>
+      </c>
+      <c r="AD104" s="4">
+        <f t="shared" si="44"/>
+        <v>200.625</v>
+      </c>
+      <c r="AE104" s="4"/>
+      <c r="AF104">
+        <f t="shared" si="45"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" t="s">
+        <v>47</v>
+      </c>
+      <c r="D105">
+        <v>25</v>
+      </c>
+      <c r="E105" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105">
+        <v>500</v>
+      </c>
+      <c r="G105" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H105">
+        <v>1576</v>
+      </c>
+      <c r="I105">
+        <v>1870</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>0.23</v>
+      </c>
+      <c r="L105">
+        <v>2.6</v>
+      </c>
+      <c r="M105">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N105">
+        <v>0.03</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>10</v>
+      </c>
+      <c r="V105" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="W105">
+        <v>15.3</v>
+      </c>
+      <c r="X105" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y105" s="2">
+        <f t="shared" si="50"/>
+        <v>31.7</v>
+      </c>
+      <c r="Z105" s="2">
+        <f t="shared" si="48"/>
+        <v>15.3</v>
+      </c>
+      <c r="AA105" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="2">
+        <f t="shared" si="42"/>
+        <v>31.7</v>
+      </c>
+      <c r="AC105" s="2">
+        <f t="shared" si="43"/>
+        <v>15.3</v>
+      </c>
+      <c r="AD105" s="4">
+        <f t="shared" si="44"/>
+        <v>65.745000000000005</v>
+      </c>
+      <c r="AE105" s="4"/>
+      <c r="AF105">
+        <f t="shared" si="45"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106">
+        <v>25</v>
+      </c>
+      <c r="E106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106">
+        <v>500</v>
+      </c>
+      <c r="G106" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H106">
+        <v>1576</v>
+      </c>
+      <c r="I106">
+        <v>1870</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>0.23</v>
+      </c>
+      <c r="L106">
+        <v>2.6</v>
+      </c>
+      <c r="M106">
+        <v>1.8993E-3</v>
+      </c>
+      <c r="N106">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+      <c r="S106">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>5</v>
+      </c>
+      <c r="V106" s="2">
+        <v>105</v>
+      </c>
+      <c r="W106">
+        <v>38</v>
+      </c>
+      <c r="X106" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="2">
+        <f t="shared" si="50"/>
+        <v>105</v>
+      </c>
+      <c r="Z106" s="2">
+        <f t="shared" si="48"/>
+        <v>38</v>
+      </c>
+      <c r="AA106" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="2">
+        <f t="shared" si="42"/>
+        <v>105</v>
+      </c>
+      <c r="AC106" s="2">
+        <f t="shared" si="43"/>
+        <v>38</v>
+      </c>
+      <c r="AD106" s="4">
+        <f t="shared" si="44"/>
+        <v>198.75</v>
+      </c>
+      <c r="AE106" s="4"/>
+      <c r="AF106">
+        <f t="shared" si="45"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107">
+        <v>25</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107">
+        <v>500</v>
+      </c>
+      <c r="G107" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H107">
+        <v>1576</v>
+      </c>
+      <c r="I107">
+        <v>1870</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>0.23</v>
+      </c>
+      <c r="L107">
+        <v>2.6</v>
+      </c>
+      <c r="M107">
+        <v>1.3338E-3</v>
+      </c>
+      <c r="N107">
+        <v>0.03</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>2</v>
+      </c>
+      <c r="V107" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="W107">
+        <v>15.6</v>
+      </c>
+      <c r="X107" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y107" s="2">
+        <f t="shared" si="50"/>
+        <v>40.4</v>
+      </c>
+      <c r="Z107" s="2">
+        <f t="shared" si="48"/>
+        <v>15.6</v>
+      </c>
+      <c r="AA107" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="2">
+        <f t="shared" si="42"/>
+        <v>40.4</v>
+      </c>
+      <c r="AC107" s="2">
+        <f t="shared" si="43"/>
+        <v>15.6</v>
+      </c>
+      <c r="AD107" s="4">
+        <f t="shared" si="44"/>
+        <v>77.94</v>
+      </c>
+      <c r="AE107" s="4"/>
+      <c r="AF107">
+        <f t="shared" si="45"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" s="6">
+        <v>25</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="6">
+        <v>500</v>
+      </c>
+      <c r="G108" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H108" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I108" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J108" s="6">
+        <v>1</v>
+      </c>
+      <c r="K108" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L108" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M108" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="N108" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O108" s="6">
+        <v>1</v>
+      </c>
+      <c r="P108" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="6">
+        <v>0</v>
+      </c>
+      <c r="R108" s="6">
+        <v>1</v>
+      </c>
+      <c r="S108" s="6">
+        <v>0</v>
+      </c>
+      <c r="T108" s="6">
+        <v>0</v>
+      </c>
+      <c r="U108" s="6">
+        <v>0</v>
+      </c>
+      <c r="V108" s="8">
+        <v>0</v>
+      </c>
+      <c r="W108" s="8">
+        <v>0</v>
+      </c>
+      <c r="X108" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y108" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Z108" s="2">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AA108" s="3"/>
+      <c r="AB108" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AC108" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AD108" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AE108" s="4"/>
+      <c r="AF108">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109">
+        <v>25</v>
+      </c>
+      <c r="E109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109">
+        <v>500</v>
+      </c>
+      <c r="G109" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H109">
+        <v>1576</v>
+      </c>
+      <c r="I109">
+        <v>1870</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>0.23</v>
+      </c>
+      <c r="L109">
+        <v>2.6</v>
+      </c>
+      <c r="M109">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="N109">
+        <v>0.04</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>1</v>
+      </c>
+      <c r="V109" s="2">
+        <v>32</v>
+      </c>
+      <c r="W109">
+        <v>10.3</v>
+      </c>
+      <c r="X109" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y109" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C109)),V109+X109*V109,IF(#REF!&lt;A109,V109-X110*V110/2,IF(A109&lt;A110,V109-(#REF!*#REF!)/2,V109-(X110*V110+#REF!*#REF!)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z109" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C109)),W109+X109*W109,IF(#REF!&lt;A109,W109-X110*W110/2,IF(A109&lt;A110,W109-(#REF!*#REF!)/2,W109-(X110*W110+#REF!*#REF!)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA109" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AC109" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AD109" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AE109" s="4"/>
+      <c r="AF109">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110">
+        <v>25</v>
+      </c>
+      <c r="E110" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110">
+        <v>500</v>
+      </c>
+      <c r="G110" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H110">
+        <v>1576</v>
+      </c>
+      <c r="I110">
+        <v>1870</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>0.23</v>
+      </c>
+      <c r="L110">
+        <v>2.6</v>
+      </c>
+      <c r="M110">
+        <v>1.3078E-3</v>
+      </c>
+      <c r="N110">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>5</v>
+      </c>
+      <c r="V110" s="2">
+        <v>63</v>
+      </c>
+      <c r="W110">
+        <v>18.5</v>
+      </c>
+      <c r="X110" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C110)),V110+X110*V110,IF(A109&lt;A110,V110-X111*V111/2,IF(A110&lt;A111,V110-(X109*V109)/2,V110-(X111*V111+X109*V109)/2))),0)</f>
+        <v>63</v>
+      </c>
+      <c r="Z110" s="2">
+        <f t="shared" ref="Z110:Z124" si="51">IFERROR(IF(ISNUMBER(SEARCH("Appui",C110)),W110+X110*W110,IF(A109&lt;A110,W110-X111*W111/2,IF(A110&lt;A111,W110-(X109*W109)/2,W110-(X111*W111+X109*W109)/2))),0)</f>
+        <v>18.5</v>
+      </c>
+      <c r="AA110" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="2">
+        <f t="shared" si="42"/>
+        <v>63</v>
+      </c>
+      <c r="AC110" s="2">
+        <f t="shared" si="43"/>
+        <v>18.5</v>
+      </c>
+      <c r="AD110" s="4">
+        <f t="shared" si="44"/>
+        <v>112.80000000000001</v>
+      </c>
+      <c r="AE110" s="4"/>
+      <c r="AF110">
+        <f t="shared" si="45"/>
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="6">
+        <v>25</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="6">
+        <v>500</v>
+      </c>
+      <c r="G111" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H111" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I111" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J111" s="6">
+        <v>1</v>
+      </c>
+      <c r="K111" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L111" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M111" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="N111" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O111" s="6">
+        <v>1</v>
+      </c>
+      <c r="P111" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="6">
+        <v>0</v>
+      </c>
+      <c r="R111" s="6">
+        <v>1</v>
+      </c>
+      <c r="S111" s="6">
+        <v>0</v>
+      </c>
+      <c r="T111" s="6">
+        <v>0</v>
+      </c>
+      <c r="U111" s="6">
+        <v>0</v>
+      </c>
+      <c r="V111" s="8">
+        <v>0</v>
+      </c>
+      <c r="W111" s="8">
+        <v>0</v>
+      </c>
+      <c r="X111" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y111" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AC111" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AD111" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AE111" s="4"/>
+      <c r="AF111">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112">
+        <v>25</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112">
+        <v>500</v>
+      </c>
+      <c r="G112" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H112">
+        <v>1576</v>
+      </c>
+      <c r="I112">
+        <v>1870</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>0.23</v>
+      </c>
+      <c r="L112">
+        <v>2.6</v>
+      </c>
+      <c r="M112" s="11">
+        <f>0.0013286 + 12*1.131*0.0001</f>
+        <v>2.6858000000000003E-3</v>
+      </c>
+      <c r="N112">
+        <v>0.06</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112" s="11">
+        <f>3.14*10^(-4)</f>
+        <v>3.1400000000000004E-4</v>
+      </c>
+      <c r="Q112" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R112" s="11">
+        <f>4*0</f>
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112" s="11">
+        <f>10*0</f>
+        <v>0</v>
+      </c>
+      <c r="V112" s="2">
+        <v>107.5</v>
+      </c>
+      <c r="W112">
+        <v>34</v>
+      </c>
+      <c r="X112" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y112" s="2">
+        <f t="shared" ref="Y112:Y124" si="52">IFERROR(IF(ISNUMBER(SEARCH("Appui",C112)),V112+X112*V112,IF(A111&lt;A112,V112-X113*V113/2,IF(A112&lt;A113,V112-(X111*V111)/2,V112-(X113*V113+X111*V111)/2))),0)</f>
+        <v>118.25</v>
+      </c>
+      <c r="Z112" s="2">
+        <f t="shared" ref="Z112:Z126" si="53">IFERROR(IF(ISNUMBER(SEARCH("Appui",C112)),W112+X112*W112,IF(A111&lt;A112,W112-X113*W113/2,IF(A112&lt;A113,W112-(X111*W111)/2,W112-(X113*W113+X111*W111)/2))),0)</f>
+        <v>37.4</v>
+      </c>
+      <c r="AA112" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="2">
+        <f t="shared" si="42"/>
+        <v>118.25</v>
+      </c>
+      <c r="AC112" s="2">
+        <f t="shared" si="43"/>
+        <v>37.4</v>
+      </c>
+      <c r="AD112" s="4">
+        <f t="shared" si="44"/>
+        <v>215.73750000000001</v>
+      </c>
+      <c r="AE112" s="4"/>
+      <c r="AF112">
+        <f t="shared" si="45"/>
+        <v>155.65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113">
+        <v>25</v>
+      </c>
+      <c r="E113" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113">
+        <v>500</v>
+      </c>
+      <c r="G113" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H113">
+        <v>1576</v>
+      </c>
+      <c r="I113">
+        <v>1870</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>0.23</v>
+      </c>
+      <c r="L113">
+        <v>2.6</v>
+      </c>
+      <c r="M113">
+        <v>3.3280000000000001E-4</v>
+      </c>
+      <c r="N113">
+        <v>0.03</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
+      </c>
+      <c r="S113">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>7</v>
+      </c>
+      <c r="V113" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="W113">
+        <v>15.9</v>
+      </c>
+      <c r="X113" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y113" s="2">
+        <f t="shared" si="52"/>
+        <v>24.574999999999999</v>
+      </c>
+      <c r="Z113" s="2">
+        <f t="shared" si="53"/>
+        <v>12.1</v>
+      </c>
+      <c r="AA113" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="2">
+        <f t="shared" si="42"/>
+        <v>24.574999999999999</v>
+      </c>
+      <c r="AC113" s="2">
+        <f t="shared" si="43"/>
+        <v>12.1</v>
+      </c>
+      <c r="AD113" s="4">
+        <f t="shared" si="44"/>
+        <v>51.326250000000002</v>
+      </c>
+      <c r="AE113" s="4"/>
+      <c r="AF113">
+        <f t="shared" si="45"/>
+        <v>36.674999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114">
+        <v>25</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114">
+        <v>500</v>
+      </c>
+      <c r="G114" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H114">
+        <v>1576</v>
+      </c>
+      <c r="I114">
+        <v>1870</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>0.23</v>
+      </c>
+      <c r="L114">
+        <v>2.6</v>
+      </c>
+      <c r="M114">
+        <v>2.1032999999999998E-3</v>
+      </c>
+      <c r="N114">
+        <v>0.06</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114" s="11">
+        <v>2.0110000000000001E-4</v>
+      </c>
+      <c r="Q114" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R114" s="11">
+        <v>4</v>
+      </c>
+      <c r="S114">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114" s="11">
+        <f>5*0</f>
+        <v>0</v>
+      </c>
+      <c r="V114" s="2">
+        <v>109</v>
+      </c>
+      <c r="W114">
+        <v>42</v>
+      </c>
+      <c r="X114" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y114" s="2">
+        <f t="shared" si="52"/>
+        <v>119.9</v>
+      </c>
+      <c r="Z114" s="2">
+        <f t="shared" si="53"/>
+        <v>46.2</v>
+      </c>
+      <c r="AA114" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="2">
+        <f t="shared" si="42"/>
+        <v>119.9</v>
+      </c>
+      <c r="AC114" s="2">
+        <f t="shared" si="43"/>
+        <v>46.2</v>
+      </c>
+      <c r="AD114" s="4">
+        <f t="shared" si="44"/>
+        <v>231.16500000000002</v>
+      </c>
+      <c r="AE114" s="4"/>
+      <c r="AF114">
+        <f t="shared" si="45"/>
+        <v>166.10000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115">
+        <v>25</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115">
+        <v>500</v>
+      </c>
+      <c r="G115" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H115">
+        <v>1576</v>
+      </c>
+      <c r="I115">
+        <v>1870</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>0.23</v>
+      </c>
+      <c r="L115">
+        <v>2.6</v>
+      </c>
+      <c r="M115">
+        <v>1E-3</v>
+      </c>
+      <c r="N115">
+        <v>0.05</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+      <c r="S115">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>5</v>
+      </c>
+      <c r="V115" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="W115">
+        <v>18.2</v>
+      </c>
+      <c r="X115" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y115" s="2">
+        <f t="shared" si="52"/>
+        <v>27.574999999999999</v>
+      </c>
+      <c r="Z115" s="2">
+        <f t="shared" si="53"/>
+        <v>13.924999999999999</v>
+      </c>
+      <c r="AA115" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="2">
+        <f t="shared" si="42"/>
+        <v>27.574999999999999</v>
+      </c>
+      <c r="AC115" s="2">
+        <f t="shared" si="43"/>
+        <v>13.924999999999999</v>
+      </c>
+      <c r="AD115" s="4">
+        <f t="shared" si="44"/>
+        <v>58.113749999999996</v>
+      </c>
+      <c r="AE115" s="4"/>
+      <c r="AF115">
+        <f t="shared" si="45"/>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116">
+        <v>25</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116">
+        <v>500</v>
+      </c>
+      <c r="G116" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H116">
+        <v>1576</v>
+      </c>
+      <c r="I116">
+        <v>1870</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>0.23</v>
+      </c>
+      <c r="L116">
+        <v>2.6</v>
+      </c>
+      <c r="M116">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N116">
+        <v>0.06</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116" s="11">
+        <v>2.0110000000000001E-4</v>
+      </c>
+      <c r="Q116" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R116" s="11">
+        <v>4</v>
+      </c>
+      <c r="S116">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116" s="11">
+        <f>5*0</f>
+        <v>0</v>
+      </c>
+      <c r="V116" s="2">
+        <v>117.5</v>
+      </c>
+      <c r="W116">
+        <v>43.5</v>
+      </c>
+      <c r="X116" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y116" s="2">
+        <f t="shared" si="52"/>
+        <v>129.25</v>
+      </c>
+      <c r="Z116" s="2">
+        <f t="shared" si="53"/>
+        <v>47.85</v>
+      </c>
+      <c r="AA116" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="2">
+        <f t="shared" si="42"/>
+        <v>129.25</v>
+      </c>
+      <c r="AC116" s="2">
+        <f t="shared" si="43"/>
+        <v>47.85</v>
+      </c>
+      <c r="AD116" s="4">
+        <f t="shared" si="44"/>
+        <v>246.26250000000002</v>
+      </c>
+      <c r="AE116" s="4"/>
+      <c r="AF116">
+        <f t="shared" si="45"/>
+        <v>177.1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117">
+        <v>25</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117">
+        <v>500</v>
+      </c>
+      <c r="G117" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H117">
+        <v>1576</v>
+      </c>
+      <c r="I117">
+        <v>1870</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>0.23</v>
+      </c>
+      <c r="L117">
+        <v>2.6</v>
+      </c>
+      <c r="M117">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N117">
+        <v>0.03</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
+      </c>
+      <c r="S117">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>10</v>
+      </c>
+      <c r="V117" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="W117">
+        <v>18.7</v>
+      </c>
+      <c r="X117" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y117" s="2">
+        <f t="shared" si="52"/>
+        <v>26.5</v>
+      </c>
+      <c r="Z117" s="2">
+        <f t="shared" si="53"/>
+        <v>14.307499999999999</v>
+      </c>
+      <c r="AA117" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="2">
+        <f t="shared" si="42"/>
+        <v>26.5</v>
+      </c>
+      <c r="AC117" s="2">
+        <f t="shared" si="43"/>
+        <v>14.307499999999999</v>
+      </c>
+      <c r="AD117" s="4">
+        <f t="shared" si="44"/>
+        <v>57.236250000000005</v>
+      </c>
+      <c r="AE117" s="4"/>
+      <c r="AF117">
+        <f t="shared" si="45"/>
+        <v>40.807499999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>56</v>
+      </c>
+      <c r="C118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118">
+        <v>25</v>
+      </c>
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118">
+        <v>500</v>
+      </c>
+      <c r="G118" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H118">
+        <v>1576</v>
+      </c>
+      <c r="I118">
+        <v>1870</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>0.23</v>
+      </c>
+      <c r="L118">
+        <v>2.6</v>
+      </c>
+      <c r="M118">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N118">
+        <v>0.06</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118" s="11">
+        <f>3.14*10^(-4)</f>
+        <v>3.1400000000000004E-4</v>
+      </c>
+      <c r="Q118" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R118" s="11">
+        <v>4</v>
+      </c>
+      <c r="S118">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118" s="11">
+        <f>10*0</f>
+        <v>0</v>
+      </c>
+      <c r="V118" s="2">
+        <v>122.5</v>
+      </c>
+      <c r="W118">
+        <v>44.35</v>
+      </c>
+      <c r="X118" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y118" s="2">
+        <f t="shared" si="52"/>
+        <v>134.75</v>
+      </c>
+      <c r="Z118" s="2">
+        <f t="shared" si="53"/>
+        <v>48.785000000000004</v>
+      </c>
+      <c r="AA118" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="2">
+        <f t="shared" si="42"/>
+        <v>134.75</v>
+      </c>
+      <c r="AC118" s="2">
+        <f t="shared" si="43"/>
+        <v>48.785000000000004</v>
+      </c>
+      <c r="AD118" s="4">
+        <f t="shared" si="44"/>
+        <v>255.09000000000003</v>
+      </c>
+      <c r="AE118" s="4"/>
+      <c r="AF118">
+        <f t="shared" si="45"/>
+        <v>183.535</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B119" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119">
+        <v>25</v>
+      </c>
+      <c r="E119" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119">
+        <v>500</v>
+      </c>
+      <c r="G119" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H119">
+        <v>1576</v>
+      </c>
+      <c r="I119">
+        <v>1870</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>0.23</v>
+      </c>
+      <c r="L119">
+        <v>2.6</v>
+      </c>
+      <c r="M119">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N119">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>10</v>
+      </c>
+      <c r="V119" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="W119">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="X119" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y119" s="2">
+        <f t="shared" si="52"/>
+        <v>28.25</v>
+      </c>
+      <c r="Z119" s="2">
+        <f t="shared" si="53"/>
+        <v>13.807500000000001</v>
+      </c>
+      <c r="AA119" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="2">
+        <f t="shared" si="42"/>
+        <v>28.25</v>
+      </c>
+      <c r="AC119" s="2">
+        <f t="shared" si="43"/>
+        <v>13.807500000000001</v>
+      </c>
+      <c r="AD119" s="4">
+        <f t="shared" si="44"/>
+        <v>58.848750000000003</v>
+      </c>
+      <c r="AE119" s="4"/>
+      <c r="AF119">
+        <f t="shared" si="45"/>
+        <v>42.057500000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>56</v>
+      </c>
+      <c r="C120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120">
+        <v>25</v>
+      </c>
+      <c r="E120" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120">
+        <v>500</v>
+      </c>
+      <c r="G120" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H120">
+        <v>1576</v>
+      </c>
+      <c r="I120">
+        <v>1870</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>0.23</v>
+      </c>
+      <c r="L120">
+        <v>2.6</v>
+      </c>
+      <c r="M120">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N120">
+        <v>0.06</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120" s="11">
+        <v>2.0110000000000001E-4</v>
+      </c>
+      <c r="Q120" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R120" s="11">
+        <v>4</v>
+      </c>
+      <c r="S120">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120" s="11">
+        <f>5*0</f>
+        <v>0</v>
+      </c>
+      <c r="V120" s="2">
+        <v>102.5</v>
+      </c>
+      <c r="W120">
+        <v>41.5</v>
+      </c>
+      <c r="X120" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y120" s="2">
+        <f t="shared" si="52"/>
+        <v>112.75</v>
+      </c>
+      <c r="Z120" s="2">
+        <f t="shared" si="53"/>
+        <v>45.65</v>
+      </c>
+      <c r="AA120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="2">
+        <f t="shared" si="42"/>
+        <v>112.75</v>
+      </c>
+      <c r="AC120" s="2">
+        <f t="shared" si="43"/>
+        <v>45.65</v>
+      </c>
+      <c r="AD120" s="4">
+        <f t="shared" si="44"/>
+        <v>220.6875</v>
+      </c>
+      <c r="AE120" s="4"/>
+      <c r="AF120">
+        <f t="shared" si="45"/>
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" t="s">
+        <v>47</v>
+      </c>
+      <c r="D121">
+        <v>25</v>
+      </c>
+      <c r="E121" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121">
+        <v>500</v>
+      </c>
+      <c r="G121" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H121">
+        <v>1576</v>
+      </c>
+      <c r="I121">
+        <v>1870</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>0.23</v>
+      </c>
+      <c r="L121">
+        <v>2.6</v>
+      </c>
+      <c r="M121">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N121">
+        <v>0.03</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>10</v>
+      </c>
+      <c r="V121" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="W121">
+        <v>15.3</v>
+      </c>
+      <c r="X121" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y121" s="2">
+        <f t="shared" si="52"/>
+        <v>21.324999999999999</v>
+      </c>
+      <c r="Z121" s="2">
+        <f t="shared" si="53"/>
+        <v>11.324999999999999</v>
+      </c>
+      <c r="AA121" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB121" s="2">
+        <f t="shared" si="42"/>
+        <v>21.324999999999999</v>
+      </c>
+      <c r="AC121" s="2">
+        <f t="shared" si="43"/>
+        <v>11.324999999999999</v>
+      </c>
+      <c r="AD121" s="4">
+        <f t="shared" si="44"/>
+        <v>45.776249999999997</v>
+      </c>
+      <c r="AE121" s="4"/>
+      <c r="AF121">
+        <f t="shared" si="45"/>
+        <v>32.65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" t="s">
+        <v>48</v>
+      </c>
+      <c r="D122">
+        <v>25</v>
+      </c>
+      <c r="E122" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122">
+        <v>500</v>
+      </c>
+      <c r="G122" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H122">
+        <v>1576</v>
+      </c>
+      <c r="I122">
+        <v>1870</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>0.23</v>
+      </c>
+      <c r="L122">
+        <v>2.6</v>
+      </c>
+      <c r="M122">
+        <v>1.8993E-3</v>
+      </c>
+      <c r="N122">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>1</v>
+      </c>
+      <c r="S122">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>5</v>
+      </c>
+      <c r="V122" s="2">
+        <v>105</v>
+      </c>
+      <c r="W122">
+        <v>38</v>
+      </c>
+      <c r="X122" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y122" s="2">
+        <f t="shared" si="52"/>
+        <v>115.5</v>
+      </c>
+      <c r="Z122" s="2">
+        <f t="shared" si="53"/>
+        <v>41.8</v>
+      </c>
+      <c r="AA122" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="2">
+        <f t="shared" si="42"/>
+        <v>115.5</v>
+      </c>
+      <c r="AC122" s="2">
+        <f t="shared" si="43"/>
+        <v>41.8</v>
+      </c>
+      <c r="AD122" s="4">
+        <f t="shared" si="44"/>
+        <v>218.625</v>
+      </c>
+      <c r="AE122" s="4"/>
+      <c r="AF122">
+        <f t="shared" si="45"/>
+        <v>157.30000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
+        <v>56</v>
+      </c>
+      <c r="C123" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123">
+        <v>25</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123">
+        <v>500</v>
+      </c>
+      <c r="G123" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H123">
+        <v>1576</v>
+      </c>
+      <c r="I123">
+        <v>1870</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>0.23</v>
+      </c>
+      <c r="L123">
+        <v>2.6</v>
+      </c>
+      <c r="M123">
+        <v>1.3338E-3</v>
+      </c>
+      <c r="N123">
+        <v>0.03</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>1</v>
+      </c>
+      <c r="S123">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="W123">
+        <v>15.6</v>
+      </c>
+      <c r="X123" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y123" s="2">
+        <f t="shared" si="52"/>
+        <v>35.15</v>
+      </c>
+      <c r="Z123" s="2">
+        <f t="shared" si="53"/>
+        <v>13.7</v>
+      </c>
+      <c r="AA123" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB123" s="2">
+        <f t="shared" si="42"/>
+        <v>35.15</v>
+      </c>
+      <c r="AC123" s="2">
+        <f t="shared" si="43"/>
+        <v>13.7</v>
+      </c>
+      <c r="AD123" s="4">
+        <f t="shared" si="44"/>
+        <v>68.002499999999998</v>
+      </c>
+      <c r="AE123" s="4"/>
+      <c r="AF123">
+        <f t="shared" si="45"/>
+        <v>48.849999999999994</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>56</v>
+      </c>
+      <c r="C124" t="s">
+        <v>55</v>
+      </c>
+      <c r="D124" s="6">
+        <v>25</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="6">
+        <v>500</v>
+      </c>
+      <c r="G124" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H124" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I124" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J124" s="6">
+        <v>1</v>
+      </c>
+      <c r="K124" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L124" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M124" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="N124" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O124" s="6">
+        <v>1</v>
+      </c>
+      <c r="P124" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="6">
+        <v>0</v>
+      </c>
+      <c r="R124" s="6">
+        <v>1</v>
+      </c>
+      <c r="S124" s="6">
+        <v>0</v>
+      </c>
+      <c r="T124" s="6">
+        <v>0</v>
+      </c>
+      <c r="U124" s="6">
+        <v>0</v>
+      </c>
+      <c r="V124" s="8">
+        <v>0</v>
+      </c>
+      <c r="W124" s="8">
+        <v>0</v>
+      </c>
+      <c r="X124" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y124" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Z124" s="2">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA124" s="3"/>
+      <c r="AB124" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AC124" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AD124" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AE124" s="4"/>
+      <c r="AF124">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125">
+        <v>25</v>
+      </c>
+      <c r="E125" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125">
+        <v>500</v>
+      </c>
+      <c r="G125" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H125">
+        <v>1576</v>
+      </c>
+      <c r="I125">
+        <v>1870</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>0.23</v>
+      </c>
+      <c r="L125">
+        <v>2.6</v>
+      </c>
+      <c r="M125">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="N125">
+        <v>0.04</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>1</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>1</v>
+      </c>
+      <c r="V125" s="2">
+        <v>32</v>
+      </c>
+      <c r="W125">
+        <v>10.3</v>
+      </c>
+      <c r="X125" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y125" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C125)),V125+X125*V125,IF(#REF!&lt;A125,V125-X126*V126/2,IF(A125&lt;A126,V125-(#REF!*#REF!)/2,V125-(X126*V126+#REF!*#REF!)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z125" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C125)),W125+X125*W125,IF(#REF!&lt;A125,W125-X126*W126/2,IF(A125&lt;A126,W125-(#REF!*#REF!)/2,W125-(X126*W126+#REF!*#REF!)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA125" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="2">
+        <f t="shared" ref="AB125:AB140" si="54">Y125*(1-AA125)</f>
+        <v>0</v>
+      </c>
+      <c r="AC125" s="2">
+        <f t="shared" ref="AC125:AC140" si="55">Y125*AA125 + Z125</f>
+        <v>0</v>
+      </c>
+      <c r="AD125" s="4">
+        <f t="shared" ref="AD125:AD140" si="56">1.35*Y125+1.5*Z125</f>
+        <v>0</v>
+      </c>
+      <c r="AE125" s="4"/>
+      <c r="AF125">
+        <f t="shared" ref="AF125:AF140" si="57">AB125+AC125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>57</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126">
+        <v>25</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126">
+        <v>500</v>
+      </c>
+      <c r="G126" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H126">
+        <v>1576</v>
+      </c>
+      <c r="I126">
+        <v>1870</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>0.23</v>
+      </c>
+      <c r="L126">
+        <v>2.6</v>
+      </c>
+      <c r="M126">
+        <v>1.3078E-3</v>
+      </c>
+      <c r="N126">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>1</v>
+      </c>
+      <c r="S126">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>5</v>
+      </c>
+      <c r="V126" s="2">
+        <v>63</v>
+      </c>
+      <c r="W126">
+        <v>18.5</v>
+      </c>
+      <c r="X126" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y126" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C126)),V126+X126*V126,IF(A125&lt;A126,V126-X127*V127/2,IF(A126&lt;A127,V126-(X125*V125)/2,V126-(X127*V127+X125*V125)/2))),0)</f>
+        <v>63</v>
+      </c>
+      <c r="Z126" s="2">
+        <f t="shared" ref="Z126" si="58">IFERROR(IF(ISNUMBER(SEARCH("Appui",C126)),W126+X126*W126,IF(A125&lt;A126,W126-X127*W127/2,IF(A126&lt;A127,W126-(X125*W125)/2,W126-(X127*W127+X125*W125)/2))),0)</f>
+        <v>18.5</v>
+      </c>
+      <c r="AA126" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB126" s="2">
+        <f t="shared" si="54"/>
+        <v>63</v>
+      </c>
+      <c r="AC126" s="2">
+        <f t="shared" si="55"/>
+        <v>18.5</v>
+      </c>
+      <c r="AD126" s="4">
+        <f t="shared" si="56"/>
+        <v>112.80000000000001</v>
+      </c>
+      <c r="AE126" s="4"/>
+      <c r="AF126">
+        <f t="shared" si="57"/>
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="6">
+        <v>25</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" s="6">
+        <v>500</v>
+      </c>
+      <c r="G127" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H127" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I127" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J127" s="6">
+        <v>1</v>
+      </c>
+      <c r="K127" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L127" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M127" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="N127" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O127" s="6">
+        <v>1</v>
+      </c>
+      <c r="P127" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="6">
+        <v>0</v>
+      </c>
+      <c r="R127" s="6">
+        <v>1</v>
+      </c>
+      <c r="S127" s="6">
+        <v>0</v>
+      </c>
+      <c r="T127" s="6">
+        <v>0</v>
+      </c>
+      <c r="U127" s="6">
+        <v>0</v>
+      </c>
+      <c r="V127" s="8">
+        <v>0</v>
+      </c>
+      <c r="W127" s="8">
+        <v>0</v>
+      </c>
+      <c r="X127" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y127" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z127" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB127" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AC127" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AD127" s="4">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AE127" s="4"/>
+      <c r="AF127">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>57</v>
+      </c>
+      <c r="C128" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128">
+        <v>25</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128">
+        <v>500</v>
+      </c>
+      <c r="G128" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H128">
+        <v>1576</v>
+      </c>
+      <c r="I128">
+        <v>1870</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>0.23</v>
+      </c>
+      <c r="L128">
+        <v>2.6</v>
+      </c>
+      <c r="M128" s="11">
+        <f>0.0013286 + 12*1.131*0.0001</f>
+        <v>2.6858000000000003E-3</v>
+      </c>
+      <c r="N128">
+        <v>0.06</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128" s="11">
+        <f>3.14*10^(-4)</f>
+        <v>3.1400000000000004E-4</v>
+      </c>
+      <c r="Q128" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R128" s="11">
+        <f>4*0</f>
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128" s="11">
+        <f>10*1</f>
+        <v>10</v>
+      </c>
+      <c r="V128" s="2">
+        <v>107.5</v>
+      </c>
+      <c r="W128">
+        <v>34</v>
+      </c>
+      <c r="X128" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="2">
+        <f t="shared" ref="Y128:Y140" si="59">IFERROR(IF(ISNUMBER(SEARCH("Appui",C128)),V128+X128*V128,IF(A127&lt;A128,V128-X129*V129/2,IF(A128&lt;A129,V128-(X127*V127)/2,V128-(X129*V129+X127*V127)/2))),0)</f>
+        <v>107.5</v>
+      </c>
+      <c r="Z128" s="2">
+        <f t="shared" ref="Z128:Z140" si="60">IFERROR(IF(ISNUMBER(SEARCH("Appui",C128)),W128+X128*W128,IF(A127&lt;A128,W128-X129*W129/2,IF(A128&lt;A129,W128-(X127*W127)/2,W128-(X129*W129+X127*W127)/2))),0)</f>
+        <v>34</v>
+      </c>
+      <c r="AA128" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB128" s="2">
+        <f t="shared" si="54"/>
+        <v>107.5</v>
+      </c>
+      <c r="AC128" s="2">
+        <f t="shared" si="55"/>
+        <v>34</v>
+      </c>
+      <c r="AD128" s="4">
+        <f t="shared" si="56"/>
+        <v>196.125</v>
+      </c>
+      <c r="AE128" s="4"/>
+      <c r="AF128">
+        <f t="shared" si="57"/>
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129">
+        <v>25</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129">
+        <v>500</v>
+      </c>
+      <c r="G129" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H129">
+        <v>1576</v>
+      </c>
+      <c r="I129">
+        <v>1870</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>0.23</v>
+      </c>
+      <c r="L129">
+        <v>2.6</v>
+      </c>
+      <c r="M129">
+        <v>3.3280000000000001E-4</v>
+      </c>
+      <c r="N129">
+        <v>0.03</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+      <c r="S129">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>7</v>
+      </c>
+      <c r="V129" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="W129">
+        <v>15.9</v>
+      </c>
+      <c r="X129" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y129" s="2">
+        <f t="shared" si="59"/>
+        <v>29.95</v>
+      </c>
+      <c r="Z129" s="2">
+        <f t="shared" si="60"/>
+        <v>13.8</v>
+      </c>
+      <c r="AA129" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB129" s="2">
+        <f t="shared" si="54"/>
+        <v>29.95</v>
+      </c>
+      <c r="AC129" s="2">
+        <f t="shared" si="55"/>
+        <v>13.8</v>
+      </c>
+      <c r="AD129" s="4">
+        <f t="shared" si="56"/>
+        <v>61.132500000000007</v>
+      </c>
+      <c r="AE129" s="4"/>
+      <c r="AF129">
+        <f t="shared" si="57"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130">
+        <v>25</v>
+      </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130">
+        <v>500</v>
+      </c>
+      <c r="G130" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H130">
+        <v>1576</v>
+      </c>
+      <c r="I130">
+        <v>1870</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130" s="11">
+        <f>0.23+0.21</f>
+        <v>0.44</v>
+      </c>
+      <c r="L130" s="11">
+        <f>2.6*0+1.4*1</f>
+        <v>1.4</v>
+      </c>
+      <c r="M130">
+        <v>2.1032999999999998E-3</v>
+      </c>
+      <c r="N130">
+        <v>0.06</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130" s="11">
+        <v>2.0110000000000001E-4</v>
+      </c>
+      <c r="Q130" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R130" s="11">
+        <f>4*0</f>
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130" s="11">
+        <f>5*1</f>
+        <v>5</v>
+      </c>
+      <c r="V130" s="2">
+        <v>109</v>
+      </c>
+      <c r="W130">
+        <v>42</v>
+      </c>
+      <c r="X130" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y130" s="2">
+        <f t="shared" si="59"/>
+        <v>119.9</v>
+      </c>
+      <c r="Z130" s="2">
+        <f t="shared" si="60"/>
+        <v>46.2</v>
+      </c>
+      <c r="AA130" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB130" s="2">
+        <f t="shared" si="54"/>
+        <v>119.9</v>
+      </c>
+      <c r="AC130" s="2">
+        <f t="shared" si="55"/>
+        <v>46.2</v>
+      </c>
+      <c r="AD130" s="4">
+        <f t="shared" si="56"/>
+        <v>231.16500000000002</v>
+      </c>
+      <c r="AE130" s="4"/>
+      <c r="AF130">
+        <f t="shared" si="57"/>
+        <v>166.10000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>57</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131">
+        <v>25</v>
+      </c>
+      <c r="E131" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131">
+        <v>500</v>
+      </c>
+      <c r="G131" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H131">
+        <v>1576</v>
+      </c>
+      <c r="I131">
+        <v>1870</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>0.23</v>
+      </c>
+      <c r="L131">
+        <v>2.6</v>
+      </c>
+      <c r="M131">
+        <v>1E-3</v>
+      </c>
+      <c r="N131">
+        <v>0.05</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>1</v>
+      </c>
+      <c r="S131">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>5</v>
+      </c>
+      <c r="V131" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="W131">
+        <v>18.2</v>
+      </c>
+      <c r="X131" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y131" s="2">
+        <f t="shared" si="59"/>
+        <v>27.574999999999999</v>
+      </c>
+      <c r="Z131" s="2">
+        <f t="shared" si="60"/>
+        <v>13.924999999999999</v>
+      </c>
+      <c r="AA131" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB131" s="2">
+        <f t="shared" si="54"/>
+        <v>27.574999999999999</v>
+      </c>
+      <c r="AC131" s="2">
+        <f t="shared" si="55"/>
+        <v>13.924999999999999</v>
+      </c>
+      <c r="AD131" s="4">
+        <f t="shared" si="56"/>
+        <v>58.113749999999996</v>
+      </c>
+      <c r="AE131" s="4"/>
+      <c r="AF131">
+        <f t="shared" si="57"/>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>57</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132">
+        <v>25</v>
+      </c>
+      <c r="E132" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132">
+        <v>500</v>
+      </c>
+      <c r="G132" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H132">
+        <v>1576</v>
+      </c>
+      <c r="I132">
+        <v>1870</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132" s="11">
+        <f>0.23+0.21</f>
+        <v>0.44</v>
+      </c>
+      <c r="L132" s="11">
+        <f>2.6*0+2*1</f>
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N132">
+        <v>0.06</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132" s="11">
+        <v>2.0110000000000001E-4</v>
+      </c>
+      <c r="Q132" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R132" s="11">
+        <f>4*0</f>
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132" s="11">
+        <f>5*1</f>
+        <v>5</v>
+      </c>
+      <c r="V132" s="2">
+        <v>117.5</v>
+      </c>
+      <c r="W132">
+        <v>43.5</v>
+      </c>
+      <c r="X132" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y132" s="2">
+        <f t="shared" si="59"/>
+        <v>129.25</v>
+      </c>
+      <c r="Z132" s="2">
+        <f t="shared" si="60"/>
+        <v>47.85</v>
+      </c>
+      <c r="AA132" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB132" s="2">
+        <f t="shared" si="54"/>
+        <v>129.25</v>
+      </c>
+      <c r="AC132" s="2">
+        <f t="shared" si="55"/>
+        <v>47.85</v>
+      </c>
+      <c r="AD132" s="4">
+        <f t="shared" si="56"/>
+        <v>246.26250000000002</v>
+      </c>
+      <c r="AE132" s="4"/>
+      <c r="AF132">
+        <f t="shared" si="57"/>
+        <v>177.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133">
+        <v>25</v>
+      </c>
+      <c r="E133" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133">
+        <v>500</v>
+      </c>
+      <c r="G133" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H133">
+        <v>1576</v>
+      </c>
+      <c r="I133">
+        <v>1870</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>0.23</v>
+      </c>
+      <c r="L133">
+        <v>2.6</v>
+      </c>
+      <c r="M133">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N133">
+        <v>0.03</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>1</v>
+      </c>
+      <c r="S133">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>10</v>
+      </c>
+      <c r="V133" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="W133">
+        <v>18.7</v>
+      </c>
+      <c r="X133" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y133" s="2">
+        <f t="shared" si="59"/>
+        <v>26.5</v>
+      </c>
+      <c r="Z133" s="2">
+        <f t="shared" si="60"/>
+        <v>14.307499999999999</v>
+      </c>
+      <c r="AA133" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB133" s="2">
+        <f t="shared" si="54"/>
+        <v>26.5</v>
+      </c>
+      <c r="AC133" s="2">
+        <f t="shared" si="55"/>
+        <v>14.307499999999999</v>
+      </c>
+      <c r="AD133" s="4">
+        <f t="shared" si="56"/>
+        <v>57.236250000000005</v>
+      </c>
+      <c r="AE133" s="4"/>
+      <c r="AF133">
+        <f t="shared" si="57"/>
+        <v>40.807499999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>57</v>
+      </c>
+      <c r="C134" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134">
+        <v>25</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134">
+        <v>500</v>
+      </c>
+      <c r="G134" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H134">
+        <v>1576</v>
+      </c>
+      <c r="I134">
+        <v>1870</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134" s="11">
+        <f>0.23+0.21</f>
+        <v>0.44</v>
+      </c>
+      <c r="L134" s="11">
+        <f>2.6*0+2*1</f>
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N134">
+        <v>0.06</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
+      <c r="P134" s="11">
+        <f>3.14*10^(-4)</f>
+        <v>3.1400000000000004E-4</v>
+      </c>
+      <c r="Q134" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R134" s="11">
+        <f>4*0</f>
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134" s="11">
+        <f>10*0.5</f>
+        <v>5</v>
+      </c>
+      <c r="V134" s="2">
+        <v>122.5</v>
+      </c>
+      <c r="W134">
+        <v>44.35</v>
+      </c>
+      <c r="X134" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y134" s="2">
+        <f t="shared" si="59"/>
+        <v>134.75</v>
+      </c>
+      <c r="Z134" s="2">
+        <f t="shared" si="60"/>
+        <v>48.785000000000004</v>
+      </c>
+      <c r="AA134" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB134" s="2">
+        <f t="shared" si="54"/>
+        <v>134.75</v>
+      </c>
+      <c r="AC134" s="2">
+        <f t="shared" si="55"/>
+        <v>48.785000000000004</v>
+      </c>
+      <c r="AD134" s="4">
+        <f t="shared" si="56"/>
+        <v>255.09000000000003</v>
+      </c>
+      <c r="AE134" s="4"/>
+      <c r="AF134">
+        <f t="shared" si="57"/>
+        <v>183.535</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" t="s">
+        <v>31</v>
+      </c>
+      <c r="D135">
+        <v>25</v>
+      </c>
+      <c r="E135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135">
+        <v>500</v>
+      </c>
+      <c r="G135" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H135">
+        <v>1576</v>
+      </c>
+      <c r="I135">
+        <v>1870</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>0.23</v>
+      </c>
+      <c r="L135">
+        <v>2.6</v>
+      </c>
+      <c r="M135">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N135">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>1</v>
+      </c>
+      <c r="S135">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>10</v>
+      </c>
+      <c r="V135" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="W135">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="X135" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y135" s="2">
+        <f t="shared" si="59"/>
+        <v>28.25</v>
+      </c>
+      <c r="Z135" s="2">
+        <f t="shared" si="60"/>
+        <v>13.807500000000001</v>
+      </c>
+      <c r="AA135" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB135" s="2">
+        <f t="shared" si="54"/>
+        <v>28.25</v>
+      </c>
+      <c r="AC135" s="2">
+        <f t="shared" si="55"/>
+        <v>13.807500000000001</v>
+      </c>
+      <c r="AD135" s="4">
+        <f t="shared" si="56"/>
+        <v>58.848750000000003</v>
+      </c>
+      <c r="AE135" s="4"/>
+      <c r="AF135">
+        <f t="shared" si="57"/>
+        <v>42.057500000000005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>57</v>
+      </c>
+      <c r="C136" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136">
+        <v>25</v>
+      </c>
+      <c r="E136" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136">
+        <v>500</v>
+      </c>
+      <c r="G136" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H136">
+        <v>1576</v>
+      </c>
+      <c r="I136">
+        <v>1870</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136" s="11">
+        <f>0.23+0.21</f>
+        <v>0.44</v>
+      </c>
+      <c r="L136" s="11">
+        <f>2.6*0+2*1</f>
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="N136">
+        <v>0.06</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136" s="11">
+        <v>2.0110000000000001E-4</v>
+      </c>
+      <c r="Q136" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R136" s="11">
+        <f>4*0</f>
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136" s="11">
+        <f>5*1</f>
+        <v>5</v>
+      </c>
+      <c r="V136" s="2">
+        <v>102.5</v>
+      </c>
+      <c r="W136">
+        <v>41.5</v>
+      </c>
+      <c r="X136" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y136" s="2">
+        <f t="shared" si="59"/>
+        <v>112.75</v>
+      </c>
+      <c r="Z136" s="2">
+        <f t="shared" si="60"/>
+        <v>45.65</v>
+      </c>
+      <c r="AA136" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB136" s="2">
+        <f t="shared" si="54"/>
+        <v>112.75</v>
+      </c>
+      <c r="AC136" s="2">
+        <f t="shared" si="55"/>
+        <v>45.65</v>
+      </c>
+      <c r="AD136" s="4">
+        <f t="shared" si="56"/>
+        <v>220.6875</v>
+      </c>
+      <c r="AE136" s="4"/>
+      <c r="AF136">
+        <f t="shared" si="57"/>
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137" t="s">
+        <v>47</v>
+      </c>
+      <c r="D137">
+        <v>25</v>
+      </c>
+      <c r="E137" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137">
+        <v>500</v>
+      </c>
+      <c r="G137" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H137">
+        <v>1576</v>
+      </c>
+      <c r="I137">
+        <v>1870</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>0.23</v>
+      </c>
+      <c r="L137">
+        <v>2.6</v>
+      </c>
+      <c r="M137">
+        <v>3.3E-4</v>
+      </c>
+      <c r="N137">
+        <v>0.03</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+      <c r="S137">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>10</v>
+      </c>
+      <c r="V137" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="W137">
+        <v>15.3</v>
+      </c>
+      <c r="X137" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y137" s="2">
+        <f t="shared" si="59"/>
+        <v>21.324999999999999</v>
+      </c>
+      <c r="Z137" s="2">
+        <f t="shared" si="60"/>
+        <v>11.324999999999999</v>
+      </c>
+      <c r="AA137" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB137" s="2">
+        <f t="shared" si="54"/>
+        <v>21.324999999999999</v>
+      </c>
+      <c r="AC137" s="2">
+        <f t="shared" si="55"/>
+        <v>11.324999999999999</v>
+      </c>
+      <c r="AD137" s="4">
+        <f t="shared" si="56"/>
+        <v>45.776249999999997</v>
+      </c>
+      <c r="AE137" s="4"/>
+      <c r="AF137">
+        <f t="shared" si="57"/>
+        <v>32.65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>57</v>
+      </c>
+      <c r="C138" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138">
+        <v>25</v>
+      </c>
+      <c r="E138" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138">
+        <v>500</v>
+      </c>
+      <c r="G138" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H138">
+        <v>1576</v>
+      </c>
+      <c r="I138">
+        <v>1870</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138" s="11">
+        <f>0.23+0.21</f>
+        <v>0.44</v>
+      </c>
+      <c r="L138" s="11">
+        <f>2.6*0+2*1</f>
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>1.8993E-3</v>
+      </c>
+      <c r="N138">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>5</v>
+      </c>
+      <c r="V138" s="2">
+        <v>105</v>
+      </c>
+      <c r="W138">
+        <v>38</v>
+      </c>
+      <c r="X138" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y138" s="2">
+        <f t="shared" si="59"/>
+        <v>115.5</v>
+      </c>
+      <c r="Z138" s="2">
+        <f t="shared" si="60"/>
+        <v>41.8</v>
+      </c>
+      <c r="AA138" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB138" s="2">
+        <f t="shared" si="54"/>
+        <v>115.5</v>
+      </c>
+      <c r="AC138" s="2">
+        <f t="shared" si="55"/>
+        <v>41.8</v>
+      </c>
+      <c r="AD138" s="4">
+        <f t="shared" si="56"/>
+        <v>218.625</v>
+      </c>
+      <c r="AE138" s="4"/>
+      <c r="AF138">
+        <f t="shared" si="57"/>
+        <v>157.30000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>57</v>
+      </c>
+      <c r="C139" t="s">
+        <v>49</v>
+      </c>
+      <c r="D139">
+        <v>25</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>500</v>
+      </c>
+      <c r="G139" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H139">
+        <v>1576</v>
+      </c>
+      <c r="I139">
+        <v>1870</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>0.23</v>
+      </c>
+      <c r="L139">
+        <v>2.6</v>
+      </c>
+      <c r="M139">
+        <v>1.3338E-3</v>
+      </c>
+      <c r="N139">
+        <v>0.03</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>1</v>
+      </c>
+      <c r="S139">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>2</v>
+      </c>
+      <c r="V139" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="W139">
+        <v>15.6</v>
+      </c>
+      <c r="X139" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y139" s="2">
+        <f t="shared" si="59"/>
+        <v>35.15</v>
+      </c>
+      <c r="Z139" s="2">
+        <f t="shared" si="60"/>
+        <v>13.7</v>
+      </c>
+      <c r="AA139" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB139" s="2">
+        <f t="shared" si="54"/>
+        <v>35.15</v>
+      </c>
+      <c r="AC139" s="2">
+        <f t="shared" si="55"/>
+        <v>13.7</v>
+      </c>
+      <c r="AD139" s="4">
+        <f t="shared" si="56"/>
+        <v>68.002499999999998</v>
+      </c>
+      <c r="AE139" s="4"/>
+      <c r="AF139">
+        <f t="shared" si="57"/>
+        <v>48.849999999999994</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="B140" t="s">
+        <v>57</v>
+      </c>
+      <c r="C140" t="s">
+        <v>55</v>
+      </c>
+      <c r="D140" s="6">
+        <v>25</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="6">
+        <v>500</v>
+      </c>
+      <c r="G140" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H140" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I140" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J140" s="6">
+        <v>1</v>
+      </c>
+      <c r="K140" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L140" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M140" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="N140" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O140" s="6">
+        <v>1</v>
+      </c>
+      <c r="P140" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="6">
+        <v>0</v>
+      </c>
+      <c r="R140" s="6">
+        <v>1</v>
+      </c>
+      <c r="S140" s="6">
+        <v>0</v>
+      </c>
+      <c r="T140" s="6">
+        <v>0</v>
+      </c>
+      <c r="U140" s="6">
+        <v>0</v>
+      </c>
+      <c r="V140" s="8">
+        <v>0</v>
+      </c>
+      <c r="W140" s="8">
+        <v>0</v>
+      </c>
+      <c r="X140" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y140" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="Z140" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AA140" s="3"/>
+      <c r="AB140" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AC140" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AD140" s="4">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AE140" s="4"/>
+      <c r="AF140">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="X2:X17 X19:X47 X51:X56 X60:X75 Y63:Z63">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$A2="Travée"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X77:X91 Y79:Z79">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$A77="Travée"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X93:X107">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$A93="Travée"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X109:X123 Y111:Z111">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$A109="Travée"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X125:X139 Y127:Z127">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A77="Travée"</formula>
+      <formula>$A125="Travée"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
